--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C091878-E141-48A9-A8BD-9AB590F930EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C81201-AF32-444F-9E64-A6833D5DD6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4230" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3915" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -9577,7 +9577,7 @@
         <v>39</v>
       </c>
       <c r="H135" s="4">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I135" s="4">
         <v>461</v>
@@ -14949,7 +14949,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I236" s="4">
         <v>471</v>
@@ -14997,10 +14997,10 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I237" s="4">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
@@ -15433,10 +15433,10 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="I246" s="4">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -15483,10 +15483,10 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I247" s="4">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
@@ -15533,10 +15533,10 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I248" s="4">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
@@ -15631,10 +15631,10 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I250" s="4">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
@@ -15681,10 +15681,10 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="I251" s="4">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
@@ -15729,10 +15729,10 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="I252" s="4">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
@@ -15779,10 +15779,10 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="I253" s="4">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
@@ -15877,10 +15877,10 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I255" s="4">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
@@ -15925,10 +15925,10 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="I256" s="4">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>

--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16919875-FD59-43E7-9B24-5DF542C06C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6492D0A9-5F09-4264-ABD4-4C1BD18F4AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="4305" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="4935" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="489">
   <si>
     <t>Type</t>
   </si>
@@ -824,6 +824,15 @@
     <t>方向てこ</t>
   </si>
   <si>
+    <t>解放99</t>
+  </si>
+  <si>
+    <t>藤江駅</t>
+  </si>
+  <si>
+    <t>解放98</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -1347,9 +1356,6 @@
   </si>
   <si>
     <t>KeyImage</t>
-  </si>
-  <si>
-    <t>解放99</t>
   </si>
   <si>
     <t>方向てこ解放</t>
@@ -5755,10 +5761,14 @@
         <v>119</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="K61" s="4">
         <v>2435</v>
       </c>
@@ -5778,19 +5788,19 @@
         <v>118</v>
       </c>
       <c r="W61" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="X61" s="7">
         <v>-1</v>
       </c>
       <c r="Y61" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Z61" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
@@ -5806,7 +5816,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
@@ -5869,7 +5879,7 @@
         <v>40</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -5897,7 +5907,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W63" s="7" t="s">
         <v>43</v>
@@ -5909,10 +5919,10 @@
         <v>44</v>
       </c>
       <c r="Z63" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
@@ -5928,7 +5938,7 @@
         <v>31</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5981,11 +5991,11 @@
         <v>50</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -6023,7 +6033,7 @@
         <v>53</v>
       </c>
       <c r="V65" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
@@ -6044,7 +6054,7 @@
         <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -6072,7 +6082,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="W66" s="7" t="s">
         <v>43</v>
@@ -6084,10 +6094,10 @@
         <v>44</v>
       </c>
       <c r="Z66" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
@@ -6103,7 +6113,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6156,11 +6166,11 @@
         <v>50</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -6186,7 +6196,7 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S68" s="7">
         <v>10</v>
@@ -6198,7 +6208,7 @@
         <v>53</v>
       </c>
       <c r="V68" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
@@ -6219,7 +6229,7 @@
         <v>40</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -6247,7 +6257,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W69" s="7" t="s">
         <v>43</v>
@@ -6259,7 +6269,7 @@
         <v>44</v>
       </c>
       <c r="Z69" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
@@ -6276,7 +6286,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6329,11 +6339,11 @@
         <v>50</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -6371,7 +6381,7 @@
         <v>53</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
@@ -6392,7 +6402,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6420,7 +6430,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W72" s="7" t="s">
         <v>43</v>
@@ -6432,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="Z72" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
@@ -6449,7 +6459,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6502,11 +6512,11 @@
         <v>50</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -6532,7 +6542,7 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="S74" s="7">
         <v>10</v>
@@ -6544,7 +6554,7 @@
         <v>53</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
@@ -6565,7 +6575,7 @@
         <v>40</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6593,7 +6603,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W75" s="7" t="s">
         <v>43</v>
@@ -6605,7 +6615,7 @@
         <v>44</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
@@ -6622,7 +6632,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6675,11 +6685,11 @@
         <v>50</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -6717,7 +6727,7 @@
         <v>53</v>
       </c>
       <c r="V77" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
@@ -6738,7 +6748,7 @@
         <v>40</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6766,7 +6776,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="W78" s="7" t="s">
         <v>43</v>
@@ -6778,7 +6788,7 @@
         <v>44</v>
       </c>
       <c r="Z78" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
@@ -6795,7 +6805,7 @@
         <v>31</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6848,11 +6858,11 @@
         <v>50</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -6878,7 +6888,7 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S80" s="7">
         <v>10</v>
@@ -6890,7 +6900,7 @@
         <v>53</v>
       </c>
       <c r="V80" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
@@ -6911,7 +6921,7 @@
         <v>40</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6939,7 +6949,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="W81" s="7" t="s">
         <v>43</v>
@@ -6951,7 +6961,7 @@
         <v>44</v>
       </c>
       <c r="Z81" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
@@ -6968,7 +6978,7 @@
         <v>31</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -7021,11 +7031,11 @@
         <v>50</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -7063,7 +7073,7 @@
         <v>53</v>
       </c>
       <c r="V83" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
@@ -7084,7 +7094,7 @@
         <v>40</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -7112,7 +7122,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="W84" s="7" t="s">
         <v>43</v>
@@ -7124,7 +7134,7 @@
         <v>44</v>
       </c>
       <c r="Z84" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
@@ -7141,7 +7151,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -7194,11 +7204,11 @@
         <v>50</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -7224,7 +7234,7 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S86" s="7">
         <v>10</v>
@@ -7236,7 +7246,7 @@
         <v>53</v>
       </c>
       <c r="V86" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
@@ -7257,7 +7267,7 @@
         <v>40</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -7285,7 +7295,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="W87" s="7" t="s">
         <v>43</v>
@@ -7297,7 +7307,7 @@
         <v>44</v>
       </c>
       <c r="Z87" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
@@ -7314,7 +7324,7 @@
         <v>31</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -7367,11 +7377,11 @@
         <v>50</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -7409,7 +7419,7 @@
         <v>53</v>
       </c>
       <c r="V89" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
@@ -7430,7 +7440,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -7458,7 +7468,7 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W90" s="7" t="s">
         <v>43</v>
@@ -7470,7 +7480,7 @@
         <v>44</v>
       </c>
       <c r="Z90" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
@@ -7487,7 +7497,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -7540,11 +7550,11 @@
         <v>50</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -7570,7 +7580,7 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S92" s="7">
         <v>10</v>
@@ -7582,7 +7592,7 @@
         <v>53</v>
       </c>
       <c r="V92" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
@@ -7603,7 +7613,7 @@
         <v>40</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -7631,7 +7641,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="W93" s="7" t="s">
         <v>43</v>
@@ -7643,7 +7653,7 @@
         <v>44</v>
       </c>
       <c r="Z93" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
@@ -7660,7 +7670,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -7713,11 +7723,11 @@
         <v>50</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -7755,7 +7765,7 @@
         <v>53</v>
       </c>
       <c r="V95" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
@@ -7776,7 +7786,7 @@
         <v>40</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -7804,7 +7814,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="W96" s="7" t="s">
         <v>43</v>
@@ -7816,7 +7826,7 @@
         <v>44</v>
       </c>
       <c r="Z96" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
@@ -7833,7 +7843,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -7886,11 +7896,11 @@
         <v>50</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -7916,7 +7926,7 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S98" s="7">
         <v>10</v>
@@ -7928,7 +7938,7 @@
         <v>53</v>
       </c>
       <c r="V98" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
@@ -7949,7 +7959,7 @@
         <v>40</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -7977,7 +7987,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W99" s="7" t="s">
         <v>79</v>
@@ -7989,7 +7999,7 @@
         <v>80</v>
       </c>
       <c r="Z99" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA99" s="6"/>
       <c r="AB99" s="6"/>
@@ -8006,7 +8016,7 @@
         <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -8059,11 +8069,11 @@
         <v>50</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -8101,7 +8111,7 @@
         <v>53</v>
       </c>
       <c r="V101" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
@@ -8122,7 +8132,7 @@
         <v>40</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -8150,7 +8160,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W102" s="7" t="s">
         <v>79</v>
@@ -8162,7 +8172,7 @@
         <v>80</v>
       </c>
       <c r="Z102" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA102" s="6"/>
       <c r="AB102" s="6"/>
@@ -8179,7 +8189,7 @@
         <v>31</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -8232,11 +8242,11 @@
         <v>50</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -8262,7 +8272,7 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="S104" s="7">
         <v>10</v>
@@ -8274,7 +8284,7 @@
         <v>53</v>
       </c>
       <c r="V104" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
@@ -8295,7 +8305,7 @@
         <v>40</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -8323,7 +8333,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="W105" s="7" t="s">
         <v>79</v>
@@ -8335,7 +8345,7 @@
         <v>80</v>
       </c>
       <c r="Z105" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA105" s="6"/>
       <c r="AB105" s="6"/>
@@ -8352,7 +8362,7 @@
         <v>31</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -8405,11 +8415,11 @@
         <v>50</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -8447,7 +8457,7 @@
         <v>53</v>
       </c>
       <c r="V107" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
@@ -8468,7 +8478,7 @@
         <v>40</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -8496,7 +8506,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W108" s="7" t="s">
         <v>79</v>
@@ -8508,7 +8518,7 @@
         <v>80</v>
       </c>
       <c r="Z108" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA108" s="6"/>
       <c r="AB108" s="6"/>
@@ -8525,7 +8535,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -8578,11 +8588,11 @@
         <v>50</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -8608,7 +8618,7 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S110" s="7">
         <v>10</v>
@@ -8620,7 +8630,7 @@
         <v>53</v>
       </c>
       <c r="V110" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
@@ -8641,7 +8651,7 @@
         <v>40</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -8669,7 +8679,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="W111" s="7" t="s">
         <v>79</v>
@@ -8681,7 +8691,7 @@
         <v>80</v>
       </c>
       <c r="Z111" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA111" s="6"/>
       <c r="AB111" s="6"/>
@@ -8698,7 +8708,7 @@
         <v>31</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -8751,11 +8761,11 @@
         <v>50</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -8793,7 +8803,7 @@
         <v>53</v>
       </c>
       <c r="V113" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
@@ -8814,7 +8824,7 @@
         <v>40</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -8842,7 +8852,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="W114" s="7" t="s">
         <v>79</v>
@@ -8854,7 +8864,7 @@
         <v>80</v>
       </c>
       <c r="Z114" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA114" s="6"/>
       <c r="AB114" s="6"/>
@@ -8871,7 +8881,7 @@
         <v>31</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -8924,11 +8934,11 @@
         <v>50</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -8954,7 +8964,7 @@
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="S116" s="7">
         <v>10</v>
@@ -8966,7 +8976,7 @@
         <v>53</v>
       </c>
       <c r="V116" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
@@ -8987,7 +8997,7 @@
         <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -9015,7 +9025,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="W117" s="7" t="s">
         <v>43</v>
@@ -9027,7 +9037,7 @@
         <v>44</v>
       </c>
       <c r="Z117" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA117" s="6"/>
       <c r="AB117" s="6"/>
@@ -9044,7 +9054,7 @@
         <v>31</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -9097,11 +9107,11 @@
         <v>50</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -9139,7 +9149,7 @@
         <v>53</v>
       </c>
       <c r="V119" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
@@ -9160,7 +9170,7 @@
         <v>40</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -9188,7 +9198,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="W120" s="7" t="s">
         <v>43</v>
@@ -9200,7 +9210,7 @@
         <v>44</v>
       </c>
       <c r="Z120" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AA120" s="6"/>
       <c r="AB120" s="6"/>
@@ -9217,7 +9227,7 @@
         <v>31</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -9270,11 +9280,11 @@
         <v>50</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -9300,7 +9310,7 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S122" s="7">
         <v>10</v>
@@ -9312,7 +9322,7 @@
         <v>53</v>
       </c>
       <c r="V122" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
@@ -9333,7 +9343,7 @@
         <v>40</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -9361,7 +9371,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W123" s="7" t="s">
         <v>79</v>
@@ -9373,7 +9383,7 @@
         <v>80</v>
       </c>
       <c r="Z123" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA123" s="6"/>
       <c r="AB123" s="6"/>
@@ -9390,7 +9400,7 @@
         <v>31</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -9443,11 +9453,11 @@
         <v>50</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -9485,7 +9495,7 @@
         <v>53</v>
       </c>
       <c r="V125" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
@@ -9506,7 +9516,7 @@
         <v>40</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -9534,7 +9544,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W126" s="7" t="s">
         <v>79</v>
@@ -9546,7 +9556,7 @@
         <v>80</v>
       </c>
       <c r="Z126" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA126" s="6"/>
       <c r="AB126" s="6"/>
@@ -9563,7 +9573,7 @@
         <v>31</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -9616,11 +9626,11 @@
         <v>50</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -9646,7 +9656,7 @@
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S128" s="7">
         <v>10</v>
@@ -9658,7 +9668,7 @@
         <v>53</v>
       </c>
       <c r="V128" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
@@ -9679,7 +9689,7 @@
         <v>40</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -9707,7 +9717,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="W129" s="7" t="s">
         <v>79</v>
@@ -9719,7 +9729,7 @@
         <v>80</v>
       </c>
       <c r="Z129" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
@@ -9736,7 +9746,7 @@
         <v>31</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -9789,11 +9799,11 @@
         <v>50</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -9831,7 +9841,7 @@
         <v>53</v>
       </c>
       <c r="V131" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
@@ -9852,7 +9862,7 @@
         <v>40</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -9880,7 +9890,7 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="W132" s="7" t="s">
         <v>79</v>
@@ -9892,7 +9902,7 @@
         <v>80</v>
       </c>
       <c r="Z132" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
@@ -9909,7 +9919,7 @@
         <v>31</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -9962,11 +9972,11 @@
         <v>50</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -9992,7 +10002,7 @@
       <c r="P134" s="4"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S134" s="7">
         <v>10</v>
@@ -10004,7 +10014,7 @@
         <v>53</v>
       </c>
       <c r="V134" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
@@ -10022,10 +10032,10 @@
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -10053,7 +10063,7 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="W135" s="7" t="s">
         <v>43</v>
@@ -10062,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="Y135" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z135" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
@@ -10082,11 +10092,11 @@
         <v>50</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -10112,7 +10122,7 @@
       <c r="P136" s="4"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S136" s="7">
         <v>10</v>
@@ -10124,7 +10134,7 @@
         <v>53</v>
       </c>
       <c r="V136" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
@@ -10142,10 +10152,10 @@
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -10173,7 +10183,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="W137" s="7" t="s">
         <v>43</v>
@@ -10182,10 +10192,10 @@
         <v>0</v>
       </c>
       <c r="Y137" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z137" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
@@ -10202,11 +10212,11 @@
         <v>50</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -10232,7 +10242,7 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S138" s="7">
         <v>10</v>
@@ -10244,7 +10254,7 @@
         <v>53</v>
       </c>
       <c r="V138" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
@@ -10262,10 +10272,10 @@
     </row>
     <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -10293,7 +10303,7 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="W139" s="7" t="s">
         <v>43</v>
@@ -10302,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="Y139" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z139" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
@@ -10322,11 +10332,11 @@
         <v>50</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -10352,7 +10362,7 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S140" s="7">
         <v>10</v>
@@ -10364,7 +10374,7 @@
         <v>53</v>
       </c>
       <c r="V140" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
@@ -10382,10 +10392,10 @@
     </row>
     <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -10413,7 +10423,7 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="W141" s="7" t="s">
         <v>43</v>
@@ -10422,10 +10432,10 @@
         <v>0</v>
       </c>
       <c r="Y141" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z141" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
@@ -10442,11 +10452,11 @@
         <v>50</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -10472,7 +10482,7 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S142" s="7">
         <v>10</v>
@@ -10484,7 +10494,7 @@
         <v>53</v>
       </c>
       <c r="V142" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
@@ -10502,10 +10512,10 @@
     </row>
     <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -10533,7 +10543,7 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="W143" s="7" t="s">
         <v>43</v>
@@ -10542,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="Y143" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z143" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
@@ -10562,11 +10572,11 @@
         <v>50</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -10592,7 +10602,7 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="S144" s="7">
         <v>10</v>
@@ -10604,7 +10614,7 @@
         <v>53</v>
       </c>
       <c r="V144" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
@@ -10622,10 +10632,10 @@
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -10653,7 +10663,7 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="W145" s="7" t="s">
         <v>43</v>
@@ -10662,10 +10672,10 @@
         <v>0</v>
       </c>
       <c r="Y145" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z145" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA145" s="6"/>
       <c r="AB145" s="6"/>
@@ -10682,11 +10692,11 @@
         <v>50</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -10712,7 +10722,7 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S146" s="7">
         <v>10</v>
@@ -10724,7 +10734,7 @@
         <v>53</v>
       </c>
       <c r="V146" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
@@ -10742,10 +10752,10 @@
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -10773,7 +10783,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="W147" s="7" t="s">
         <v>43</v>
@@ -10782,10 +10792,10 @@
         <v>0</v>
       </c>
       <c r="Y147" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z147" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA147" s="6"/>
       <c r="AB147" s="6"/>
@@ -10802,11 +10812,11 @@
         <v>50</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -10832,7 +10842,7 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S148" s="7">
         <v>10</v>
@@ -10844,7 +10854,7 @@
         <v>53</v>
       </c>
       <c r="V148" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
@@ -10862,10 +10872,10 @@
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -10893,7 +10903,7 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="W149" s="7" t="s">
         <v>43</v>
@@ -10902,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="Y149" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z149" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
@@ -10922,11 +10932,11 @@
         <v>50</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -10952,7 +10962,7 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S150" s="7">
         <v>10</v>
@@ -10964,7 +10974,7 @@
         <v>53</v>
       </c>
       <c r="V150" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
@@ -10982,7 +10992,7 @@
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B151" s="4">
         <v>5</v>
@@ -11022,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="Y151" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z151" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
@@ -11042,7 +11052,7 @@
         <v>50</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4">
@@ -11102,7 +11112,7 @@
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B153" s="4">
         <v>6</v>
@@ -11142,10 +11152,10 @@
         <v>0</v>
       </c>
       <c r="Y153" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z153" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA153" s="6"/>
       <c r="AB153" s="6"/>
@@ -11162,7 +11172,7 @@
         <v>50</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4">
@@ -11222,10 +11232,10 @@
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -11253,7 +11263,7 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="W155" s="7" t="s">
         <v>43</v>
@@ -11262,10 +11272,10 @@
         <v>0</v>
       </c>
       <c r="Y155" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z155" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
@@ -11282,11 +11292,11 @@
         <v>50</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -11312,7 +11322,7 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S156" s="7">
         <v>10</v>
@@ -11324,7 +11334,7 @@
         <v>53</v>
       </c>
       <c r="V156" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
@@ -11342,10 +11352,10 @@
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -11373,7 +11383,7 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W157" s="7" t="s">
         <v>43</v>
@@ -11382,10 +11392,10 @@
         <v>0</v>
       </c>
       <c r="Y157" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z157" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA157" s="6"/>
       <c r="AB157" s="6"/>
@@ -11402,11 +11412,11 @@
         <v>50</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -11432,7 +11442,7 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S158" s="7">
         <v>10</v>
@@ -11444,7 +11454,7 @@
         <v>53</v>
       </c>
       <c r="V158" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
@@ -11462,10 +11472,10 @@
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -11493,7 +11503,7 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
       <c r="V159" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="W159" s="7" t="s">
         <v>43</v>
@@ -11502,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="Y159" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z159" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA159" s="6"/>
       <c r="AB159" s="6"/>
@@ -11522,11 +11532,11 @@
         <v>50</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -11552,7 +11562,7 @@
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S160" s="7">
         <v>10</v>
@@ -11564,7 +11574,7 @@
         <v>53</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
@@ -11582,7 +11592,7 @@
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>10</v>
@@ -11622,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="Y161" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z161" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA161" s="6"/>
       <c r="AB161" s="6"/>
@@ -11642,7 +11652,7 @@
         <v>50</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
@@ -11702,7 +11712,7 @@
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>11</v>
@@ -11742,10 +11752,10 @@
         <v>0</v>
       </c>
       <c r="Y163" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z163" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA163" s="6"/>
       <c r="AB163" s="6"/>
@@ -11762,7 +11772,7 @@
         <v>50</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
@@ -11822,10 +11832,10 @@
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -11853,7 +11863,7 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="W165" s="13" t="s">
         <v>43</v>
@@ -11862,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="Y165" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Z165" s="14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
@@ -11879,10 +11889,10 @@
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -11910,7 +11920,7 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
       <c r="V166" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="W166" s="13" t="s">
         <v>43</v>
@@ -11919,10 +11929,10 @@
         <v>0</v>
       </c>
       <c r="Y166" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Z166" s="14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
@@ -11939,7 +11949,7 @@
         <v>40</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -11967,22 +11977,22 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="W167" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X167" s="7">
         <v>0</v>
       </c>
       <c r="Y167" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z167" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA167" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AB167" s="6"/>
       <c r="AC167" s="6"/>
@@ -11998,7 +12008,7 @@
         <v>31</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -12034,7 +12044,7 @@
       </c>
       <c r="Y168" s="8"/>
       <c r="Z168" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
@@ -12051,7 +12061,7 @@
         <v>31</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -12087,7 +12097,7 @@
       </c>
       <c r="Y169" s="8"/>
       <c r="Z169" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
@@ -12104,11 +12114,11 @@
         <v>50</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="4"/>
@@ -12146,7 +12156,7 @@
         <v>53</v>
       </c>
       <c r="V170" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
@@ -12167,7 +12177,7 @@
         <v>40</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -12195,19 +12205,19 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="W171" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X171" s="7">
         <v>0</v>
       </c>
       <c r="Y171" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z171" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA171" s="6"/>
       <c r="AB171" s="6"/>
@@ -12224,7 +12234,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -12260,7 +12270,7 @@
       </c>
       <c r="Y172" s="8"/>
       <c r="Z172" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
@@ -12277,7 +12287,7 @@
         <v>31</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -12313,7 +12323,7 @@
       </c>
       <c r="Y173" s="8"/>
       <c r="Z173" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA173" s="6"/>
       <c r="AB173" s="6"/>
@@ -12330,11 +12340,11 @@
         <v>50</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="4"/>
@@ -12372,7 +12382,7 @@
         <v>53</v>
       </c>
       <c r="V174" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
@@ -12393,7 +12403,7 @@
         <v>40</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -12421,19 +12431,19 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="W175" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X175" s="7">
         <v>0</v>
       </c>
       <c r="Y175" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z175" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
@@ -12450,7 +12460,7 @@
         <v>31</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -12486,7 +12496,7 @@
       </c>
       <c r="Y176" s="8"/>
       <c r="Z176" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA176" s="6"/>
       <c r="AB176" s="6"/>
@@ -12503,7 +12513,7 @@
         <v>31</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -12539,7 +12549,7 @@
       </c>
       <c r="Y177" s="8"/>
       <c r="Z177" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA177" s="6"/>
       <c r="AB177" s="6"/>
@@ -12556,11 +12566,11 @@
         <v>50</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="4"/>
@@ -12598,7 +12608,7 @@
         <v>53</v>
       </c>
       <c r="V178" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
@@ -12619,7 +12629,7 @@
         <v>40</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -12647,19 +12657,19 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
       <c r="V179" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="W179" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X179" s="7">
         <v>0</v>
       </c>
       <c r="Y179" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z179" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA179" s="6"/>
       <c r="AB179" s="6"/>
@@ -12676,7 +12686,7 @@
         <v>31</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -12712,7 +12722,7 @@
       </c>
       <c r="Y180" s="8"/>
       <c r="Z180" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA180" s="6"/>
       <c r="AB180" s="6"/>
@@ -12729,7 +12739,7 @@
         <v>31</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -12765,7 +12775,7 @@
       </c>
       <c r="Y181" s="8"/>
       <c r="Z181" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA181" s="6"/>
       <c r="AB181" s="6"/>
@@ -12782,11 +12792,11 @@
         <v>50</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="4"/>
@@ -12824,7 +12834,7 @@
         <v>53</v>
       </c>
       <c r="V182" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
@@ -12845,7 +12855,7 @@
         <v>40</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -12873,19 +12883,19 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="W183" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X183" s="7">
         <v>0</v>
       </c>
       <c r="Y183" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z183" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA183" s="6"/>
       <c r="AB183" s="6"/>
@@ -12902,7 +12912,7 @@
         <v>31</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -12938,7 +12948,7 @@
       </c>
       <c r="Y184" s="8"/>
       <c r="Z184" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA184" s="6"/>
       <c r="AB184" s="6"/>
@@ -12955,7 +12965,7 @@
         <v>31</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -12991,7 +13001,7 @@
       </c>
       <c r="Y185" s="8"/>
       <c r="Z185" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA185" s="6"/>
       <c r="AB185" s="6"/>
@@ -13008,11 +13018,11 @@
         <v>50</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="4"/>
@@ -13050,7 +13060,7 @@
         <v>53</v>
       </c>
       <c r="V186" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
@@ -13071,7 +13081,7 @@
         <v>40</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -13099,19 +13109,19 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="W187" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X187" s="7">
         <v>0</v>
       </c>
       <c r="Y187" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z187" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA187" s="6"/>
       <c r="AB187" s="6"/>
@@ -13128,7 +13138,7 @@
         <v>31</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -13164,7 +13174,7 @@
       </c>
       <c r="Y188" s="8"/>
       <c r="Z188" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
@@ -13181,7 +13191,7 @@
         <v>31</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -13217,7 +13227,7 @@
       </c>
       <c r="Y189" s="8"/>
       <c r="Z189" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
@@ -13234,11 +13244,11 @@
         <v>50</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="4"/>
@@ -13276,7 +13286,7 @@
         <v>53</v>
       </c>
       <c r="V190" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
@@ -13297,7 +13307,7 @@
         <v>40</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -13325,19 +13335,19 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="W191" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X191" s="7">
         <v>0</v>
       </c>
       <c r="Y191" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z191" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
@@ -13354,7 +13364,7 @@
         <v>31</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -13390,7 +13400,7 @@
       </c>
       <c r="Y192" s="8"/>
       <c r="Z192" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
@@ -13407,7 +13417,7 @@
         <v>31</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -13443,7 +13453,7 @@
       </c>
       <c r="Y193" s="8"/>
       <c r="Z193" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA193" s="6"/>
       <c r="AB193" s="6"/>
@@ -13460,11 +13470,11 @@
         <v>50</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="4"/>
@@ -13502,7 +13512,7 @@
         <v>53</v>
       </c>
       <c r="V194" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
@@ -13523,7 +13533,7 @@
         <v>40</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -13551,19 +13561,19 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W195" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X195" s="7">
         <v>0</v>
       </c>
       <c r="Y195" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z195" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
@@ -13580,7 +13590,7 @@
         <v>31</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -13616,7 +13626,7 @@
       </c>
       <c r="Y196" s="8"/>
       <c r="Z196" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
@@ -13633,7 +13643,7 @@
         <v>31</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -13669,7 +13679,7 @@
       </c>
       <c r="Y197" s="8"/>
       <c r="Z197" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
@@ -13686,11 +13696,11 @@
         <v>50</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="4"/>
@@ -13728,7 +13738,7 @@
         <v>53</v>
       </c>
       <c r="V198" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
@@ -13749,7 +13759,7 @@
         <v>40</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -13777,19 +13787,19 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
       <c r="V199" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="W199" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X199" s="7">
         <v>0</v>
       </c>
       <c r="Y199" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z199" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
@@ -13806,7 +13816,7 @@
         <v>31</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -13842,7 +13852,7 @@
       </c>
       <c r="Y200" s="8"/>
       <c r="Z200" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA200" s="6"/>
       <c r="AB200" s="6"/>
@@ -13859,7 +13869,7 @@
         <v>31</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -13895,7 +13905,7 @@
       </c>
       <c r="Y201" s="8"/>
       <c r="Z201" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
@@ -13912,11 +13922,11 @@
         <v>50</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="4"/>
@@ -13954,7 +13964,7 @@
         <v>53</v>
       </c>
       <c r="V202" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="W202" s="4"/>
       <c r="X202" s="4"/>
@@ -13975,7 +13985,7 @@
         <v>40</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -14003,19 +14013,19 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
       <c r="V203" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="W203" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X203" s="7">
         <v>0</v>
       </c>
       <c r="Y203" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z203" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA203" s="6"/>
       <c r="AB203" s="6"/>
@@ -14032,7 +14042,7 @@
         <v>31</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -14068,7 +14078,7 @@
       </c>
       <c r="Y204" s="8"/>
       <c r="Z204" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA204" s="6"/>
       <c r="AB204" s="6"/>
@@ -14085,7 +14095,7 @@
         <v>31</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -14121,7 +14131,7 @@
       </c>
       <c r="Y205" s="8"/>
       <c r="Z205" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA205" s="6"/>
       <c r="AB205" s="6"/>
@@ -14138,11 +14148,11 @@
         <v>50</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E206" s="7"/>
       <c r="F206" s="4"/>
@@ -14180,7 +14190,7 @@
         <v>53</v>
       </c>
       <c r="V206" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="W206" s="4"/>
       <c r="X206" s="4"/>
@@ -14198,21 +14208,19 @@
     </row>
     <row r="207" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
       <c r="K207" s="4">
         <v>2367</v>
       </c>
@@ -14229,10 +14237,10 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
       <c r="V207" s="7" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="W207" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="X207" s="7">
         <v>0</v>
@@ -14241,10 +14249,10 @@
         <v>44</v>
       </c>
       <c r="Z207" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AA207" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AB207" s="6"/>
       <c r="AC207" s="6"/>
@@ -14260,7 +14268,7 @@
         <v>31</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -14294,7 +14302,7 @@
       </c>
       <c r="Y208" s="8"/>
       <c r="Z208" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA208" s="6"/>
       <c r="AB208" s="6"/>
@@ -14308,7 +14316,7 @@
     </row>
     <row r="209" spans="1:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>42</v>
@@ -14342,19 +14350,19 @@
         <v>42</v>
       </c>
       <c r="W209" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="X209" s="7">
         <v>1</v>
       </c>
       <c r="Y209" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Z209" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AA209" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AB209" s="6"/>
       <c r="AC209" s="6"/>
@@ -14370,7 +14378,7 @@
         <v>31</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -14404,7 +14412,7 @@
       </c>
       <c r="Y210" s="8"/>
       <c r="Z210" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA210" s="6"/>
       <c r="AB210" s="6"/>
@@ -14421,7 +14429,7 @@
         <v>31</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -14455,7 +14463,7 @@
       </c>
       <c r="Y211" s="8"/>
       <c r="Z211" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA211" s="6"/>
       <c r="AB211" s="6"/>
@@ -14472,7 +14480,7 @@
         <v>31</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -14499,17 +14507,17 @@
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
       <c r="W212" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X212" s="13">
         <v>0</v>
       </c>
       <c r="Y212" s="3"/>
       <c r="Z212" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA212" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AB212" s="6"/>
       <c r="AC212" s="6"/>
@@ -14525,7 +14533,7 @@
         <v>31</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -14552,14 +14560,14 @@
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
       <c r="W213" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X213" s="13">
         <v>0</v>
       </c>
       <c r="Y213" s="3"/>
       <c r="Z213" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA213" s="6"/>
       <c r="AB213" s="6"/>
@@ -14576,7 +14584,7 @@
         <v>31</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -14603,14 +14611,14 @@
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
       <c r="W214" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X214" s="13">
         <v>0</v>
       </c>
       <c r="Y214" s="3"/>
       <c r="Z214" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA214" s="6"/>
       <c r="AB214" s="6"/>
@@ -14627,7 +14635,7 @@
         <v>31</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -14654,14 +14662,14 @@
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
       <c r="W215" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X215" s="13">
         <v>0</v>
       </c>
       <c r="Y215" s="3"/>
       <c r="Z215" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA215" s="6"/>
       <c r="AB215" s="6"/>
@@ -14678,7 +14686,7 @@
         <v>31</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -14705,14 +14713,14 @@
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
       <c r="W216" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X216" s="13">
         <v>0</v>
       </c>
       <c r="Y216" s="3"/>
       <c r="Z216" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA216" s="6"/>
       <c r="AB216" s="6"/>
@@ -14729,7 +14737,7 @@
         <v>31</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -14756,14 +14764,14 @@
       <c r="U217" s="11"/>
       <c r="V217" s="11"/>
       <c r="W217" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X217" s="13">
         <v>0</v>
       </c>
       <c r="Y217" s="3"/>
       <c r="Z217" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA217" s="6"/>
       <c r="AB217" s="6"/>
@@ -14780,7 +14788,7 @@
         <v>31</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -14807,14 +14815,14 @@
       <c r="U218" s="11"/>
       <c r="V218" s="11"/>
       <c r="W218" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X218" s="13">
         <v>0</v>
       </c>
       <c r="Y218" s="3"/>
       <c r="Z218" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA218" s="6"/>
       <c r="AB218" s="6"/>
@@ -14831,7 +14839,7 @@
         <v>31</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -14858,14 +14866,14 @@
       <c r="U219" s="11"/>
       <c r="V219" s="11"/>
       <c r="W219" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X219" s="13">
         <v>0</v>
       </c>
       <c r="Y219" s="3"/>
       <c r="Z219" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA219" s="6"/>
       <c r="AB219" s="6"/>
@@ -14882,7 +14890,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -14909,14 +14917,14 @@
       <c r="U220" s="11"/>
       <c r="V220" s="11"/>
       <c r="W220" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X220" s="13">
         <v>0</v>
       </c>
       <c r="Y220" s="3"/>
       <c r="Z220" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA220" s="6"/>
       <c r="AB220" s="6"/>
@@ -14933,7 +14941,7 @@
         <v>31</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -14960,17 +14968,17 @@
       <c r="U221" s="11"/>
       <c r="V221" s="11"/>
       <c r="W221" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X221" s="13">
         <v>0</v>
       </c>
       <c r="Y221" s="3"/>
       <c r="Z221" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA221" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB221" s="6"/>
       <c r="AC221" s="6"/>
@@ -14986,7 +14994,7 @@
         <v>31</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -15013,14 +15021,14 @@
       <c r="U222" s="11"/>
       <c r="V222" s="11"/>
       <c r="W222" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X222" s="13">
         <v>0</v>
       </c>
       <c r="Y222" s="3"/>
       <c r="Z222" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA222" s="6"/>
       <c r="AB222" s="6"/>
@@ -15037,7 +15045,7 @@
         <v>31</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -15064,14 +15072,14 @@
       <c r="U223" s="11"/>
       <c r="V223" s="11"/>
       <c r="W223" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X223" s="13">
         <v>0</v>
       </c>
       <c r="Y223" s="3"/>
       <c r="Z223" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA223" s="6"/>
       <c r="AB223" s="6"/>
@@ -15088,7 +15096,7 @@
         <v>31</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -15115,17 +15123,17 @@
       <c r="U224" s="11"/>
       <c r="V224" s="11"/>
       <c r="W224" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X224" s="13">
         <v>0</v>
       </c>
       <c r="Y224" s="3"/>
       <c r="Z224" s="14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA224" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AB224" s="6"/>
       <c r="AC224" s="6"/>
@@ -15141,7 +15149,7 @@
         <v>31</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -15168,14 +15176,14 @@
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
       <c r="W225" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X225" s="13">
         <v>0</v>
       </c>
       <c r="Y225" s="3"/>
       <c r="Z225" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA225" s="6"/>
       <c r="AB225" s="6"/>
@@ -15192,7 +15200,7 @@
         <v>31</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -15219,14 +15227,14 @@
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
       <c r="W226" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X226" s="13">
         <v>0</v>
       </c>
       <c r="Y226" s="3"/>
       <c r="Z226" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA226" s="6"/>
       <c r="AB226" s="6"/>
@@ -15243,7 +15251,7 @@
         <v>31</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -15270,17 +15278,17 @@
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
       <c r="W227" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X227" s="13">
         <v>0</v>
       </c>
       <c r="Y227" s="3"/>
       <c r="Z227" s="14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA227" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AB227" s="6"/>
       <c r="AC227" s="6"/>
@@ -15296,7 +15304,7 @@
         <v>31</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -15323,14 +15331,14 @@
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
       <c r="W228" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X228" s="13">
         <v>0</v>
       </c>
       <c r="Y228" s="3"/>
       <c r="Z228" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
@@ -15347,7 +15355,7 @@
         <v>31</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -15374,14 +15382,14 @@
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
       <c r="W229" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X229" s="13">
         <v>0</v>
       </c>
       <c r="Y229" s="3"/>
       <c r="Z229" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
@@ -15398,7 +15406,7 @@
         <v>31</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -15425,17 +15433,17 @@
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
       <c r="W230" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X230" s="13">
         <v>0</v>
       </c>
       <c r="Y230" s="3"/>
       <c r="Z230" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA230" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB230" s="6"/>
       <c r="AC230" s="6"/>
@@ -15451,7 +15459,7 @@
         <v>31</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -15478,14 +15486,14 @@
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
       <c r="W231" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X231" s="13">
         <v>0</v>
       </c>
       <c r="Y231" s="3"/>
       <c r="Z231" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
@@ -15502,7 +15510,7 @@
         <v>31</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -15529,14 +15537,14 @@
       <c r="U232" s="11"/>
       <c r="V232" s="11"/>
       <c r="W232" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X232" s="13">
         <v>0</v>
       </c>
       <c r="Y232" s="3"/>
       <c r="Z232" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA232" s="6"/>
       <c r="AB232" s="6"/>
@@ -15553,7 +15561,7 @@
         <v>31</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -15580,14 +15588,14 @@
       <c r="U233" s="11"/>
       <c r="V233" s="11"/>
       <c r="W233" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X233" s="13">
         <v>0</v>
       </c>
       <c r="Y233" s="3"/>
       <c r="Z233" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA233" s="6"/>
       <c r="AB233" s="6"/>
@@ -15604,7 +15612,7 @@
         <v>31</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -15631,14 +15639,14 @@
       <c r="U234" s="11"/>
       <c r="V234" s="11"/>
       <c r="W234" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X234" s="13">
         <v>0</v>
       </c>
       <c r="Y234" s="3"/>
       <c r="Z234" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA234" s="6"/>
       <c r="AB234" s="6"/>
@@ -15655,7 +15663,7 @@
         <v>31</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -15682,14 +15690,14 @@
       <c r="U235" s="11"/>
       <c r="V235" s="11"/>
       <c r="W235" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X235" s="13">
         <v>0</v>
       </c>
       <c r="Y235" s="3"/>
       <c r="Z235" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA235" s="6"/>
       <c r="AB235" s="6"/>
@@ -15706,7 +15714,7 @@
         <v>31</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -15733,14 +15741,14 @@
       <c r="U236" s="11"/>
       <c r="V236" s="11"/>
       <c r="W236" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X236" s="13">
         <v>0</v>
       </c>
       <c r="Y236" s="3"/>
       <c r="Z236" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA236" s="6"/>
       <c r="AB236" s="6"/>
@@ -15757,7 +15765,7 @@
         <v>31</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -15784,17 +15792,17 @@
       <c r="U237" s="11"/>
       <c r="V237" s="11"/>
       <c r="W237" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X237" s="13">
         <v>0</v>
       </c>
       <c r="Y237" s="3"/>
       <c r="Z237" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA237" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB237" s="6"/>
       <c r="AC237" s="6"/>
@@ -15810,7 +15818,7 @@
         <v>31</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -15837,14 +15845,14 @@
       <c r="U238" s="11"/>
       <c r="V238" s="11"/>
       <c r="W238" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X238" s="13">
         <v>0</v>
       </c>
       <c r="Y238" s="3"/>
       <c r="Z238" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA238" s="6"/>
       <c r="AB238" s="6"/>
@@ -15861,7 +15869,7 @@
         <v>31</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -15888,14 +15896,14 @@
       <c r="U239" s="11"/>
       <c r="V239" s="11"/>
       <c r="W239" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X239" s="13">
         <v>0</v>
       </c>
       <c r="Y239" s="3"/>
       <c r="Z239" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA239" s="6"/>
       <c r="AB239" s="6"/>
@@ -15912,7 +15920,7 @@
         <v>31</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -15939,14 +15947,14 @@
       <c r="U240" s="11"/>
       <c r="V240" s="11"/>
       <c r="W240" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X240" s="13">
         <v>0</v>
       </c>
       <c r="Y240" s="3"/>
       <c r="Z240" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA240" s="6"/>
       <c r="AB240" s="6"/>
@@ -15963,7 +15971,7 @@
         <v>31</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -15990,14 +15998,14 @@
       <c r="U241" s="11"/>
       <c r="V241" s="11"/>
       <c r="W241" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X241" s="13">
         <v>0</v>
       </c>
       <c r="Y241" s="3"/>
       <c r="Z241" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA241" s="6"/>
       <c r="AB241" s="6"/>
@@ -16014,7 +16022,7 @@
         <v>31</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -16041,14 +16049,14 @@
       <c r="U242" s="11"/>
       <c r="V242" s="11"/>
       <c r="W242" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X242" s="13">
         <v>0</v>
       </c>
       <c r="Y242" s="3"/>
       <c r="Z242" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA242" s="6"/>
       <c r="AB242" s="6"/>
@@ -16065,7 +16073,7 @@
         <v>31</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -16092,17 +16100,17 @@
       <c r="U243" s="11"/>
       <c r="V243" s="11"/>
       <c r="W243" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X243" s="13">
         <v>0</v>
       </c>
       <c r="Y243" s="3"/>
       <c r="Z243" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA243" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB243" s="6"/>
       <c r="AC243" s="6"/>
@@ -16118,7 +16126,7 @@
         <v>31</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -16145,14 +16153,14 @@
       <c r="U244" s="11"/>
       <c r="V244" s="11"/>
       <c r="W244" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X244" s="13">
         <v>0</v>
       </c>
       <c r="Y244" s="3"/>
       <c r="Z244" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA244" s="6"/>
       <c r="AB244" s="6"/>
@@ -16169,7 +16177,7 @@
         <v>31</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -16196,14 +16204,14 @@
       <c r="U245" s="11"/>
       <c r="V245" s="11"/>
       <c r="W245" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X245" s="13">
         <v>0</v>
       </c>
       <c r="Y245" s="3"/>
       <c r="Z245" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA245" s="6"/>
       <c r="AB245" s="6"/>
@@ -16220,7 +16228,7 @@
         <v>31</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -16247,17 +16255,17 @@
       <c r="U246" s="11"/>
       <c r="V246" s="11"/>
       <c r="W246" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X246" s="13">
         <v>0</v>
       </c>
       <c r="Y246" s="3"/>
       <c r="Z246" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA246" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB246" s="6"/>
       <c r="AC246" s="6"/>
@@ -16273,7 +16281,7 @@
         <v>31</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -16300,17 +16308,17 @@
       <c r="U247" s="11"/>
       <c r="V247" s="11"/>
       <c r="W247" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X247" s="13">
         <v>0</v>
       </c>
       <c r="Y247" s="3"/>
       <c r="Z247" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA247" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB247" s="6"/>
       <c r="AC247" s="6"/>
@@ -16326,7 +16334,7 @@
         <v>31</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -16353,17 +16361,17 @@
       <c r="U248" s="11"/>
       <c r="V248" s="11"/>
       <c r="W248" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X248" s="13">
         <v>0</v>
       </c>
       <c r="Y248" s="3"/>
       <c r="Z248" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA248" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB248" s="6"/>
       <c r="AC248" s="6"/>
@@ -16379,7 +16387,7 @@
         <v>31</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -16406,14 +16414,14 @@
       <c r="U249" s="11"/>
       <c r="V249" s="11"/>
       <c r="W249" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X249" s="13">
         <v>0</v>
       </c>
       <c r="Y249" s="3"/>
       <c r="Z249" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA249" s="6"/>
       <c r="AB249" s="6"/>
@@ -16430,7 +16438,7 @@
         <v>31</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -16457,17 +16465,17 @@
       <c r="U250" s="11"/>
       <c r="V250" s="11"/>
       <c r="W250" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X250" s="13">
         <v>0</v>
       </c>
       <c r="Y250" s="3"/>
       <c r="Z250" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA250" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB250" s="6"/>
       <c r="AC250" s="6"/>
@@ -16483,7 +16491,7 @@
         <v>31</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -16510,14 +16518,14 @@
       <c r="U251" s="11"/>
       <c r="V251" s="11"/>
       <c r="W251" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X251" s="13">
         <v>0</v>
       </c>
       <c r="Y251" s="3"/>
       <c r="Z251" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA251" s="6"/>
       <c r="AB251" s="6"/>
@@ -16534,7 +16542,7 @@
         <v>31</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -16561,17 +16569,17 @@
       <c r="U252" s="11"/>
       <c r="V252" s="11"/>
       <c r="W252" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X252" s="13">
         <v>0</v>
       </c>
       <c r="Y252" s="3"/>
       <c r="Z252" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA252" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB252" s="6"/>
       <c r="AC252" s="6"/>
@@ -16587,7 +16595,7 @@
         <v>31</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -16614,17 +16622,17 @@
       <c r="U253" s="11"/>
       <c r="V253" s="11"/>
       <c r="W253" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X253" s="13">
         <v>0</v>
       </c>
       <c r="Y253" s="3"/>
       <c r="Z253" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA253" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB253" s="6"/>
       <c r="AC253" s="6"/>
@@ -16640,7 +16648,7 @@
         <v>31</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -16667,14 +16675,14 @@
       <c r="U254" s="11"/>
       <c r="V254" s="11"/>
       <c r="W254" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X254" s="13">
         <v>0</v>
       </c>
       <c r="Y254" s="3"/>
       <c r="Z254" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA254" s="6"/>
       <c r="AB254" s="6"/>
@@ -16691,7 +16699,7 @@
         <v>31</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -16718,14 +16726,14 @@
       <c r="U255" s="11"/>
       <c r="V255" s="11"/>
       <c r="W255" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X255" s="13">
         <v>0</v>
       </c>
       <c r="Y255" s="3"/>
       <c r="Z255" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA255" s="6"/>
       <c r="AB255" s="6"/>
@@ -16742,7 +16750,7 @@
         <v>31</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -16769,17 +16777,17 @@
       <c r="U256" s="11"/>
       <c r="V256" s="11"/>
       <c r="W256" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X256" s="13">
         <v>0</v>
       </c>
       <c r="Y256" s="3"/>
       <c r="Z256" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA256" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB256" s="6"/>
       <c r="AC256" s="6"/>
@@ -16795,7 +16803,7 @@
         <v>31</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -16822,14 +16830,14 @@
       <c r="U257" s="11"/>
       <c r="V257" s="11"/>
       <c r="W257" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X257" s="13">
         <v>0</v>
       </c>
       <c r="Y257" s="3"/>
       <c r="Z257" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA257" s="6"/>
       <c r="AB257" s="6"/>
@@ -16846,7 +16854,7 @@
         <v>31</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -16873,14 +16881,14 @@
       <c r="U258" s="11"/>
       <c r="V258" s="11"/>
       <c r="W258" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X258" s="13">
         <v>0</v>
       </c>
       <c r="Y258" s="3"/>
       <c r="Z258" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA258" s="6"/>
       <c r="AB258" s="6"/>
@@ -16897,7 +16905,7 @@
         <v>31</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -16924,14 +16932,14 @@
       <c r="U259" s="11"/>
       <c r="V259" s="11"/>
       <c r="W259" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X259" s="13">
         <v>0</v>
       </c>
       <c r="Y259" s="3"/>
       <c r="Z259" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA259" s="6"/>
       <c r="AB259" s="6"/>
@@ -16948,7 +16956,7 @@
         <v>31</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -16975,14 +16983,14 @@
       <c r="U260" s="11"/>
       <c r="V260" s="11"/>
       <c r="W260" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X260" s="13">
         <v>0</v>
       </c>
       <c r="Y260" s="3"/>
       <c r="Z260" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA260" s="6"/>
       <c r="AB260" s="6"/>
@@ -16999,7 +17007,7 @@
         <v>31</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -17026,14 +17034,14 @@
       <c r="U261" s="11"/>
       <c r="V261" s="11"/>
       <c r="W261" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X261" s="13">
         <v>0</v>
       </c>
       <c r="Y261" s="3"/>
       <c r="Z261" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA261" s="6"/>
       <c r="AB261" s="6"/>
@@ -17050,7 +17058,7 @@
         <v>31</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -17077,14 +17085,14 @@
       <c r="U262" s="11"/>
       <c r="V262" s="11"/>
       <c r="W262" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X262" s="13">
         <v>0</v>
       </c>
       <c r="Y262" s="3"/>
       <c r="Z262" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA262" s="6"/>
       <c r="AB262" s="6"/>
@@ -17101,7 +17109,7 @@
         <v>31</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -17128,14 +17136,14 @@
       <c r="U263" s="11"/>
       <c r="V263" s="11"/>
       <c r="W263" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X263" s="13">
         <v>0</v>
       </c>
       <c r="Y263" s="3"/>
       <c r="Z263" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA263" s="6"/>
       <c r="AB263" s="6"/>
@@ -17152,7 +17160,7 @@
         <v>31</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -17179,14 +17187,14 @@
       <c r="U264" s="11"/>
       <c r="V264" s="11"/>
       <c r="W264" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X264" s="13">
         <v>0</v>
       </c>
       <c r="Y264" s="3"/>
       <c r="Z264" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA264" s="6"/>
       <c r="AB264" s="6"/>
@@ -17203,7 +17211,7 @@
         <v>31</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -17230,14 +17238,14 @@
       <c r="U265" s="11"/>
       <c r="V265" s="11"/>
       <c r="W265" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X265" s="13">
         <v>0</v>
       </c>
       <c r="Y265" s="3"/>
       <c r="Z265" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA265" s="6"/>
       <c r="AB265" s="6"/>
@@ -17254,7 +17262,7 @@
         <v>31</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -17281,14 +17289,14 @@
       <c r="U266" s="11"/>
       <c r="V266" s="11"/>
       <c r="W266" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X266" s="13">
         <v>0</v>
       </c>
       <c r="Y266" s="3"/>
       <c r="Z266" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA266" s="6"/>
       <c r="AB266" s="6"/>
@@ -17305,7 +17313,7 @@
         <v>31</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -17332,14 +17340,14 @@
       <c r="U267" s="11"/>
       <c r="V267" s="11"/>
       <c r="W267" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X267" s="13">
         <v>0</v>
       </c>
       <c r="Y267" s="3"/>
       <c r="Z267" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA267" s="6"/>
       <c r="AB267" s="6"/>
@@ -17356,7 +17364,7 @@
         <v>31</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -17383,14 +17391,14 @@
       <c r="U268" s="11"/>
       <c r="V268" s="11"/>
       <c r="W268" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X268" s="13">
         <v>0</v>
       </c>
       <c r="Y268" s="3"/>
       <c r="Z268" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA268" s="6"/>
       <c r="AB268" s="6"/>
@@ -17407,7 +17415,7 @@
         <v>31</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -17434,14 +17442,14 @@
       <c r="U269" s="11"/>
       <c r="V269" s="11"/>
       <c r="W269" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X269" s="13">
         <v>0</v>
       </c>
       <c r="Y269" s="3"/>
       <c r="Z269" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA269" s="6"/>
       <c r="AB269" s="6"/>
@@ -17458,7 +17466,7 @@
         <v>31</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -17485,14 +17493,14 @@
       <c r="U270" s="11"/>
       <c r="V270" s="11"/>
       <c r="W270" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X270" s="13">
         <v>0</v>
       </c>
       <c r="Y270" s="3"/>
       <c r="Z270" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA270" s="6"/>
       <c r="AB270" s="6"/>
@@ -17509,7 +17517,7 @@
         <v>31</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -17536,14 +17544,14 @@
       <c r="U271" s="11"/>
       <c r="V271" s="11"/>
       <c r="W271" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X271" s="13">
         <v>0</v>
       </c>
       <c r="Y271" s="3"/>
       <c r="Z271" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA271" s="6"/>
       <c r="AB271" s="6"/>
@@ -17560,7 +17568,7 @@
         <v>31</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -17587,17 +17595,17 @@
       <c r="U272" s="11"/>
       <c r="V272" s="11"/>
       <c r="W272" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X272" s="13">
         <v>0</v>
       </c>
       <c r="Y272" s="3"/>
       <c r="Z272" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA272" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB272" s="6"/>
       <c r="AC272" s="6"/>
@@ -17613,7 +17621,7 @@
         <v>31</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -17640,17 +17648,17 @@
       <c r="U273" s="11"/>
       <c r="V273" s="11"/>
       <c r="W273" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X273" s="13">
         <v>0</v>
       </c>
       <c r="Y273" s="3"/>
       <c r="Z273" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA273" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB273" s="6"/>
       <c r="AC273" s="6"/>
@@ -17666,7 +17674,7 @@
         <v>31</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -17693,14 +17701,14 @@
       <c r="U274" s="11"/>
       <c r="V274" s="11"/>
       <c r="W274" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X274" s="13">
         <v>0</v>
       </c>
       <c r="Y274" s="3"/>
       <c r="Z274" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA274" s="6"/>
       <c r="AB274" s="6"/>
@@ -17717,7 +17725,7 @@
         <v>31</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -17744,14 +17752,14 @@
       <c r="U275" s="11"/>
       <c r="V275" s="11"/>
       <c r="W275" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X275" s="13">
         <v>0</v>
       </c>
       <c r="Y275" s="3"/>
       <c r="Z275" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA275" s="6"/>
       <c r="AB275" s="6"/>
@@ -17768,7 +17776,7 @@
         <v>31</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -17795,17 +17803,17 @@
       <c r="U276" s="11"/>
       <c r="V276" s="11"/>
       <c r="W276" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X276" s="13">
         <v>0</v>
       </c>
       <c r="Y276" s="3"/>
       <c r="Z276" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA276" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB276" s="6"/>
       <c r="AC276" s="6"/>
@@ -17821,7 +17829,7 @@
         <v>31</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -17848,17 +17856,17 @@
       <c r="U277" s="11"/>
       <c r="V277" s="11"/>
       <c r="W277" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X277" s="13">
         <v>0</v>
       </c>
       <c r="Y277" s="3"/>
       <c r="Z277" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA277" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB277" s="6"/>
       <c r="AC277" s="6"/>
@@ -17874,7 +17882,7 @@
         <v>31</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -17901,14 +17909,14 @@
       <c r="U278" s="11"/>
       <c r="V278" s="11"/>
       <c r="W278" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X278" s="13">
         <v>0</v>
       </c>
       <c r="Y278" s="3"/>
       <c r="Z278" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA278" s="6"/>
       <c r="AB278" s="6"/>
@@ -17925,7 +17933,7 @@
         <v>31</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -17952,17 +17960,17 @@
       <c r="U279" s="11"/>
       <c r="V279" s="11"/>
       <c r="W279" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X279" s="13">
         <v>0</v>
       </c>
       <c r="Y279" s="3"/>
       <c r="Z279" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA279" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB279" s="6"/>
       <c r="AC279" s="6"/>
@@ -17978,7 +17986,7 @@
         <v>31</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -18005,17 +18013,17 @@
       <c r="U280" s="11"/>
       <c r="V280" s="11"/>
       <c r="W280" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X280" s="13">
         <v>0</v>
       </c>
       <c r="Y280" s="3"/>
       <c r="Z280" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA280" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB280" s="6"/>
       <c r="AC280" s="6"/>
@@ -18031,7 +18039,7 @@
         <v>31</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -18058,14 +18066,14 @@
       <c r="U281" s="11"/>
       <c r="V281" s="11"/>
       <c r="W281" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X281" s="13">
         <v>0</v>
       </c>
       <c r="Y281" s="3"/>
       <c r="Z281" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA281" s="6"/>
       <c r="AB281" s="6"/>
@@ -18082,7 +18090,7 @@
         <v>31</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -18109,17 +18117,17 @@
       <c r="U282" s="11"/>
       <c r="V282" s="11"/>
       <c r="W282" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X282" s="13">
         <v>0</v>
       </c>
       <c r="Y282" s="3"/>
       <c r="Z282" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA282" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB282" s="6"/>
       <c r="AC282" s="6"/>
@@ -18135,7 +18143,7 @@
         <v>31</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -18162,17 +18170,17 @@
       <c r="U283" s="11"/>
       <c r="V283" s="11"/>
       <c r="W283" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X283" s="13">
         <v>0</v>
       </c>
       <c r="Y283" s="3"/>
       <c r="Z283" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA283" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB283" s="6"/>
       <c r="AC283" s="6"/>
@@ -18188,7 +18196,7 @@
         <v>31</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -18215,14 +18223,14 @@
       <c r="U284" s="11"/>
       <c r="V284" s="11"/>
       <c r="W284" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X284" s="13">
         <v>0</v>
       </c>
       <c r="Y284" s="3"/>
       <c r="Z284" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA284" s="6"/>
       <c r="AB284" s="6"/>
@@ -18239,7 +18247,7 @@
         <v>31</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -18266,14 +18274,14 @@
       <c r="U285" s="11"/>
       <c r="V285" s="11"/>
       <c r="W285" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X285" s="13">
         <v>0</v>
       </c>
       <c r="Y285" s="3"/>
       <c r="Z285" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA285" s="6"/>
       <c r="AB285" s="6"/>
@@ -18290,7 +18298,7 @@
         <v>31</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -18317,14 +18325,14 @@
       <c r="U286" s="11"/>
       <c r="V286" s="11"/>
       <c r="W286" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X286" s="13">
         <v>0</v>
       </c>
       <c r="Y286" s="3"/>
       <c r="Z286" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA286" s="6"/>
       <c r="AB286" s="6"/>
@@ -18341,7 +18349,7 @@
         <v>31</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -18368,17 +18376,17 @@
       <c r="U287" s="11"/>
       <c r="V287" s="11"/>
       <c r="W287" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X287" s="13">
         <v>0</v>
       </c>
       <c r="Y287" s="3"/>
       <c r="Z287" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA287" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB287" s="6"/>
       <c r="AC287" s="6"/>
@@ -18394,7 +18402,7 @@
         <v>31</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -18421,17 +18429,17 @@
       <c r="U288" s="11"/>
       <c r="V288" s="11"/>
       <c r="W288" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X288" s="13">
         <v>0</v>
       </c>
       <c r="Y288" s="3"/>
       <c r="Z288" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA288" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB288" s="6"/>
       <c r="AC288" s="6"/>
@@ -18447,7 +18455,7 @@
         <v>31</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -18474,17 +18482,17 @@
       <c r="U289" s="11"/>
       <c r="V289" s="11"/>
       <c r="W289" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X289" s="13">
         <v>0</v>
       </c>
       <c r="Y289" s="3"/>
       <c r="Z289" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA289" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB289" s="6"/>
       <c r="AC289" s="6"/>
@@ -18500,7 +18508,7 @@
         <v>31</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -18527,17 +18535,17 @@
       <c r="U290" s="11"/>
       <c r="V290" s="11"/>
       <c r="W290" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X290" s="13">
         <v>0</v>
       </c>
       <c r="Y290" s="3"/>
       <c r="Z290" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA290" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB290" s="6"/>
       <c r="AC290" s="6"/>
@@ -18553,7 +18561,7 @@
         <v>31</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -18580,17 +18588,17 @@
       <c r="U291" s="11"/>
       <c r="V291" s="11"/>
       <c r="W291" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X291" s="13">
         <v>0</v>
       </c>
       <c r="Y291" s="3"/>
       <c r="Z291" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA291" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB291" s="6"/>
       <c r="AC291" s="6"/>
@@ -18606,7 +18614,7 @@
         <v>31</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -18633,17 +18641,17 @@
       <c r="U292" s="11"/>
       <c r="V292" s="11"/>
       <c r="W292" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X292" s="13">
         <v>0</v>
       </c>
       <c r="Y292" s="3"/>
       <c r="Z292" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA292" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB292" s="6"/>
       <c r="AC292" s="6"/>
@@ -18659,7 +18667,7 @@
         <v>31</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -18686,17 +18694,17 @@
       <c r="U293" s="11"/>
       <c r="V293" s="11"/>
       <c r="W293" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X293" s="13">
         <v>0</v>
       </c>
       <c r="Y293" s="3"/>
       <c r="Z293" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA293" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB293" s="6"/>
       <c r="AC293" s="6"/>
@@ -18712,7 +18720,7 @@
         <v>31</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -18739,17 +18747,17 @@
       <c r="U294" s="11"/>
       <c r="V294" s="11"/>
       <c r="W294" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X294" s="13">
         <v>0</v>
       </c>
       <c r="Y294" s="3"/>
       <c r="Z294" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA294" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AB294" s="6"/>
       <c r="AC294" s="6"/>
@@ -18765,7 +18773,7 @@
         <v>31</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -18792,17 +18800,17 @@
       <c r="U295" s="11"/>
       <c r="V295" s="11"/>
       <c r="W295" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X295" s="13">
         <v>0</v>
       </c>
       <c r="Y295" s="3"/>
       <c r="Z295" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA295" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB295" s="6"/>
       <c r="AC295" s="6"/>
@@ -18818,7 +18826,7 @@
         <v>31</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -18845,17 +18853,17 @@
       <c r="U296" s="11"/>
       <c r="V296" s="11"/>
       <c r="W296" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X296" s="13">
         <v>0</v>
       </c>
       <c r="Y296" s="3"/>
       <c r="Z296" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA296" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB296" s="6"/>
       <c r="AC296" s="6"/>
@@ -18871,7 +18879,7 @@
         <v>31</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -18898,17 +18906,17 @@
       <c r="U297" s="11"/>
       <c r="V297" s="11"/>
       <c r="W297" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X297" s="13">
         <v>0</v>
       </c>
       <c r="Y297" s="3"/>
       <c r="Z297" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA297" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB297" s="6"/>
       <c r="AC297" s="6"/>
@@ -18924,7 +18932,7 @@
         <v>31</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -18951,17 +18959,17 @@
       <c r="U298" s="11"/>
       <c r="V298" s="11"/>
       <c r="W298" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X298" s="13">
         <v>0</v>
       </c>
       <c r="Y298" s="3"/>
       <c r="Z298" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA298" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB298" s="6"/>
       <c r="AC298" s="6"/>
@@ -18977,7 +18985,7 @@
         <v>31</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -19004,17 +19012,17 @@
       <c r="U299" s="11"/>
       <c r="V299" s="11"/>
       <c r="W299" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X299" s="13">
         <v>0</v>
       </c>
       <c r="Y299" s="3"/>
       <c r="Z299" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA299" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AB299" s="6"/>
       <c r="AC299" s="6"/>
@@ -19030,7 +19038,7 @@
         <v>31</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -19057,17 +19065,17 @@
       <c r="U300" s="11"/>
       <c r="V300" s="11"/>
       <c r="W300" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X300" s="13">
         <v>0</v>
       </c>
       <c r="Y300" s="3"/>
       <c r="Z300" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA300" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB300" s="6"/>
       <c r="AC300" s="6"/>
@@ -19083,7 +19091,7 @@
         <v>31</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -19110,17 +19118,17 @@
       <c r="U301" s="11"/>
       <c r="V301" s="11"/>
       <c r="W301" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X301" s="13">
         <v>0</v>
       </c>
       <c r="Y301" s="3"/>
       <c r="Z301" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA301" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB301" s="6"/>
       <c r="AC301" s="6"/>
@@ -19136,7 +19144,7 @@
         <v>31</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -19163,17 +19171,17 @@
       <c r="U302" s="11"/>
       <c r="V302" s="11"/>
       <c r="W302" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X302" s="13">
         <v>0</v>
       </c>
       <c r="Y302" s="3"/>
       <c r="Z302" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA302" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB302" s="6"/>
       <c r="AC302" s="6"/>
@@ -19189,7 +19197,7 @@
         <v>31</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -19216,17 +19224,17 @@
       <c r="U303" s="11"/>
       <c r="V303" s="11"/>
       <c r="W303" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X303" s="13">
         <v>0</v>
       </c>
       <c r="Y303" s="3"/>
       <c r="Z303" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA303" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB303" s="6"/>
       <c r="AC303" s="6"/>
@@ -19242,7 +19250,7 @@
         <v>31</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -19269,14 +19277,14 @@
       <c r="U304" s="11"/>
       <c r="V304" s="11"/>
       <c r="W304" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X304" s="13">
         <v>0</v>
       </c>
       <c r="Y304" s="3"/>
       <c r="Z304" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA304" s="6"/>
       <c r="AB304" s="6"/>
@@ -19293,7 +19301,7 @@
         <v>31</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -19320,14 +19328,14 @@
       <c r="U305" s="11"/>
       <c r="V305" s="11"/>
       <c r="W305" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X305" s="13">
         <v>0</v>
       </c>
       <c r="Y305" s="3"/>
       <c r="Z305" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA305" s="6"/>
       <c r="AB305" s="6"/>
@@ -19344,7 +19352,7 @@
         <v>31</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -19371,14 +19379,14 @@
       <c r="U306" s="11"/>
       <c r="V306" s="11"/>
       <c r="W306" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X306" s="13">
         <v>0</v>
       </c>
       <c r="Y306" s="3"/>
       <c r="Z306" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA306" s="6"/>
       <c r="AB306" s="6"/>
@@ -19395,7 +19403,7 @@
         <v>31</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -19422,14 +19430,14 @@
       <c r="U307" s="11"/>
       <c r="V307" s="11"/>
       <c r="W307" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X307" s="13">
         <v>0</v>
       </c>
       <c r="Y307" s="3"/>
       <c r="Z307" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA307" s="6"/>
       <c r="AB307" s="6"/>
@@ -19446,7 +19454,7 @@
         <v>31</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -19473,14 +19481,14 @@
       <c r="U308" s="11"/>
       <c r="V308" s="11"/>
       <c r="W308" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X308" s="13">
         <v>0</v>
       </c>
       <c r="Y308" s="3"/>
       <c r="Z308" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA308" s="6"/>
       <c r="AB308" s="6"/>
@@ -19497,7 +19505,7 @@
         <v>31</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -19524,14 +19532,14 @@
       <c r="U309" s="11"/>
       <c r="V309" s="11"/>
       <c r="W309" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X309" s="13">
         <v>0</v>
       </c>
       <c r="Y309" s="3"/>
       <c r="Z309" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA309" s="6"/>
       <c r="AB309" s="6"/>
@@ -19548,7 +19556,7 @@
         <v>31</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -19575,14 +19583,14 @@
       <c r="U310" s="11"/>
       <c r="V310" s="11"/>
       <c r="W310" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X310" s="13">
         <v>0</v>
       </c>
       <c r="Y310" s="3"/>
       <c r="Z310" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA310" s="6"/>
       <c r="AB310" s="6"/>
@@ -19599,7 +19607,7 @@
         <v>31</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -19626,17 +19634,17 @@
       <c r="U311" s="11"/>
       <c r="V311" s="11"/>
       <c r="W311" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X311" s="13">
         <v>0</v>
       </c>
       <c r="Y311" s="3"/>
       <c r="Z311" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA311" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB311" s="6"/>
       <c r="AC311" s="6"/>
@@ -19652,7 +19660,7 @@
         <v>31</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -19679,14 +19687,14 @@
       <c r="U312" s="11"/>
       <c r="V312" s="11"/>
       <c r="W312" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X312" s="13">
         <v>0</v>
       </c>
       <c r="Y312" s="3"/>
       <c r="Z312" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA312" s="6"/>
       <c r="AB312" s="6"/>
@@ -19703,7 +19711,7 @@
         <v>31</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -19730,14 +19738,14 @@
       <c r="U313" s="11"/>
       <c r="V313" s="11"/>
       <c r="W313" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X313" s="13">
         <v>0</v>
       </c>
       <c r="Y313" s="3"/>
       <c r="Z313" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA313" s="6"/>
       <c r="AB313" s="6"/>
@@ -19754,7 +19762,7 @@
         <v>31</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -19781,14 +19789,14 @@
       <c r="U314" s="11"/>
       <c r="V314" s="11"/>
       <c r="W314" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X314" s="13">
         <v>0</v>
       </c>
       <c r="Y314" s="3"/>
       <c r="Z314" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA314" s="6"/>
       <c r="AB314" s="6"/>
@@ -19805,7 +19813,7 @@
         <v>31</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -19832,14 +19840,14 @@
       <c r="U315" s="11"/>
       <c r="V315" s="11"/>
       <c r="W315" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X315" s="13">
         <v>0</v>
       </c>
       <c r="Y315" s="3"/>
       <c r="Z315" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA315" s="6"/>
       <c r="AB315" s="6"/>
@@ -19856,7 +19864,7 @@
         <v>31</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -19883,14 +19891,14 @@
       <c r="U316" s="11"/>
       <c r="V316" s="11"/>
       <c r="W316" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X316" s="13">
         <v>0</v>
       </c>
       <c r="Y316" s="3"/>
       <c r="Z316" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA316" s="6"/>
       <c r="AB316" s="6"/>
@@ -19907,7 +19915,7 @@
         <v>31</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -19934,14 +19942,14 @@
       <c r="U317" s="11"/>
       <c r="V317" s="11"/>
       <c r="W317" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X317" s="13">
         <v>0</v>
       </c>
       <c r="Y317" s="3"/>
       <c r="Z317" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA317" s="6"/>
       <c r="AB317" s="6"/>
@@ -19958,7 +19966,7 @@
         <v>31</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -19985,14 +19993,14 @@
       <c r="U318" s="11"/>
       <c r="V318" s="11"/>
       <c r="W318" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X318" s="13">
         <v>0</v>
       </c>
       <c r="Y318" s="3"/>
       <c r="Z318" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA318" s="6"/>
       <c r="AB318" s="6"/>
@@ -20009,7 +20017,7 @@
         <v>31</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -20036,14 +20044,14 @@
       <c r="U319" s="11"/>
       <c r="V319" s="11"/>
       <c r="W319" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X319" s="13">
         <v>0</v>
       </c>
       <c r="Y319" s="3"/>
       <c r="Z319" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA319" s="6"/>
       <c r="AB319" s="6"/>
@@ -20060,7 +20068,7 @@
         <v>31</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -20087,17 +20095,17 @@
       <c r="U320" s="11"/>
       <c r="V320" s="11"/>
       <c r="W320" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X320" s="13">
         <v>0</v>
       </c>
       <c r="Y320" s="3"/>
       <c r="Z320" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA320" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB320" s="6"/>
       <c r="AC320" s="6"/>
@@ -20113,7 +20121,7 @@
         <v>31</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -20140,14 +20148,14 @@
       <c r="U321" s="11"/>
       <c r="V321" s="11"/>
       <c r="W321" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X321" s="13">
         <v>0</v>
       </c>
       <c r="Y321" s="3"/>
       <c r="Z321" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA321" s="6"/>
       <c r="AB321" s="6"/>
@@ -20164,7 +20172,7 @@
         <v>31</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -20191,14 +20199,14 @@
       <c r="U322" s="11"/>
       <c r="V322" s="11"/>
       <c r="W322" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X322" s="13">
         <v>0</v>
       </c>
       <c r="Y322" s="3"/>
       <c r="Z322" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA322" s="6"/>
       <c r="AB322" s="6"/>
@@ -20215,7 +20223,7 @@
         <v>31</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -20242,17 +20250,17 @@
       <c r="U323" s="11"/>
       <c r="V323" s="11"/>
       <c r="W323" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X323" s="13">
         <v>0</v>
       </c>
       <c r="Y323" s="3"/>
       <c r="Z323" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA323" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB323" s="6"/>
       <c r="AC323" s="6"/>
@@ -20268,7 +20276,7 @@
         <v>31</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -20295,14 +20303,14 @@
       <c r="U324" s="11"/>
       <c r="V324" s="11"/>
       <c r="W324" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X324" s="13">
         <v>0</v>
       </c>
       <c r="Y324" s="3"/>
       <c r="Z324" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA324" s="6"/>
       <c r="AB324" s="6"/>
@@ -20319,7 +20327,7 @@
         <v>31</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -20346,14 +20354,14 @@
       <c r="U325" s="11"/>
       <c r="V325" s="11"/>
       <c r="W325" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X325" s="13">
         <v>0</v>
       </c>
       <c r="Y325" s="3"/>
       <c r="Z325" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA325" s="6"/>
       <c r="AB325" s="6"/>
@@ -20370,7 +20378,7 @@
         <v>31</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -20397,14 +20405,14 @@
       <c r="U326" s="11"/>
       <c r="V326" s="11"/>
       <c r="W326" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X326" s="13">
         <v>0</v>
       </c>
       <c r="Y326" s="3"/>
       <c r="Z326" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA326" s="6"/>
       <c r="AB326" s="6"/>
@@ -20421,7 +20429,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -20448,14 +20456,14 @@
       <c r="U327" s="11"/>
       <c r="V327" s="11"/>
       <c r="W327" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X327" s="13">
         <v>0</v>
       </c>
       <c r="Y327" s="3"/>
       <c r="Z327" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA327" s="6"/>
       <c r="AB327" s="6"/>
@@ -20472,7 +20480,7 @@
         <v>31</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -20499,14 +20507,14 @@
       <c r="U328" s="11"/>
       <c r="V328" s="11"/>
       <c r="W328" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X328" s="13">
         <v>0</v>
       </c>
       <c r="Y328" s="3"/>
       <c r="Z328" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA328" s="6"/>
       <c r="AB328" s="6"/>
@@ -20523,7 +20531,7 @@
         <v>31</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -20550,14 +20558,14 @@
       <c r="U329" s="11"/>
       <c r="V329" s="11"/>
       <c r="W329" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X329" s="13">
         <v>0</v>
       </c>
       <c r="Y329" s="3"/>
       <c r="Z329" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA329" s="6"/>
       <c r="AB329" s="6"/>
@@ -20574,7 +20582,7 @@
         <v>31</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -20601,14 +20609,14 @@
       <c r="U330" s="11"/>
       <c r="V330" s="11"/>
       <c r="W330" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X330" s="13">
         <v>0</v>
       </c>
       <c r="Y330" s="3"/>
       <c r="Z330" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA330" s="6"/>
       <c r="AB330" s="6"/>
@@ -20625,7 +20633,7 @@
         <v>31</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -20652,17 +20660,17 @@
       <c r="U331" s="11"/>
       <c r="V331" s="11"/>
       <c r="W331" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X331" s="13">
         <v>0</v>
       </c>
       <c r="Y331" s="3"/>
       <c r="Z331" s="14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA331" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AB331" s="6"/>
       <c r="AC331" s="6"/>
@@ -20678,7 +20686,7 @@
         <v>31</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -20705,17 +20713,17 @@
       <c r="U332" s="11"/>
       <c r="V332" s="11"/>
       <c r="W332" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X332" s="13">
         <v>0</v>
       </c>
       <c r="Y332" s="3"/>
       <c r="Z332" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA332" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB332" s="6"/>
       <c r="AC332" s="6"/>
@@ -20731,7 +20739,7 @@
         <v>31</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -20758,17 +20766,17 @@
       <c r="U333" s="11"/>
       <c r="V333" s="11"/>
       <c r="W333" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X333" s="13">
         <v>0</v>
       </c>
       <c r="Y333" s="3"/>
       <c r="Z333" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA333" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB333" s="6"/>
       <c r="AC333" s="6"/>
@@ -20784,7 +20792,7 @@
         <v>31</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -20811,17 +20819,17 @@
       <c r="U334" s="11"/>
       <c r="V334" s="11"/>
       <c r="W334" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X334" s="13">
         <v>0</v>
       </c>
       <c r="Y334" s="3"/>
       <c r="Z334" s="14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA334" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AB334" s="6"/>
       <c r="AC334" s="6"/>
@@ -20837,7 +20845,7 @@
         <v>31</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -20864,14 +20872,14 @@
       <c r="U335" s="11"/>
       <c r="V335" s="11"/>
       <c r="W335" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X335" s="13">
         <v>0</v>
       </c>
       <c r="Y335" s="3"/>
       <c r="Z335" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA335" s="6"/>
       <c r="AB335" s="6"/>
@@ -20888,7 +20896,7 @@
         <v>31</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -20915,14 +20923,14 @@
       <c r="U336" s="11"/>
       <c r="V336" s="11"/>
       <c r="W336" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X336" s="13">
         <v>0</v>
       </c>
       <c r="Y336" s="3"/>
       <c r="Z336" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA336" s="6"/>
       <c r="AB336" s="6"/>
@@ -20939,7 +20947,7 @@
         <v>31</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -20966,14 +20974,14 @@
       <c r="U337" s="11"/>
       <c r="V337" s="11"/>
       <c r="W337" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X337" s="13">
         <v>0</v>
       </c>
       <c r="Y337" s="3"/>
       <c r="Z337" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA337" s="6"/>
       <c r="AB337" s="6"/>
@@ -20990,7 +20998,7 @@
         <v>31</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -21017,14 +21025,14 @@
       <c r="U338" s="11"/>
       <c r="V338" s="11"/>
       <c r="W338" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X338" s="13">
         <v>0</v>
       </c>
       <c r="Y338" s="3"/>
       <c r="Z338" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA338" s="6"/>
       <c r="AB338" s="6"/>
@@ -21041,7 +21049,7 @@
         <v>31</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -21068,17 +21076,17 @@
       <c r="U339" s="11"/>
       <c r="V339" s="11"/>
       <c r="W339" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X339" s="13">
         <v>0</v>
       </c>
       <c r="Y339" s="3"/>
       <c r="Z339" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA339" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB339" s="6"/>
       <c r="AC339" s="6"/>
@@ -21094,7 +21102,7 @@
         <v>31</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -21121,14 +21129,14 @@
       <c r="U340" s="11"/>
       <c r="V340" s="11"/>
       <c r="W340" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X340" s="13">
         <v>0</v>
       </c>
       <c r="Y340" s="3"/>
       <c r="Z340" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA340" s="6"/>
       <c r="AB340" s="6"/>
@@ -21145,7 +21153,7 @@
         <v>31</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -21172,14 +21180,14 @@
       <c r="U341" s="11"/>
       <c r="V341" s="11"/>
       <c r="W341" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X341" s="13">
         <v>0</v>
       </c>
       <c r="Y341" s="3"/>
       <c r="Z341" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA341" s="6"/>
       <c r="AB341" s="6"/>
@@ -21196,7 +21204,7 @@
         <v>31</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -21223,14 +21231,14 @@
       <c r="U342" s="11"/>
       <c r="V342" s="11"/>
       <c r="W342" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X342" s="13">
         <v>0</v>
       </c>
       <c r="Y342" s="3"/>
       <c r="Z342" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA342" s="6"/>
       <c r="AB342" s="6"/>
@@ -21247,7 +21255,7 @@
         <v>31</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -21274,14 +21282,14 @@
       <c r="U343" s="11"/>
       <c r="V343" s="11"/>
       <c r="W343" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X343" s="13">
         <v>0</v>
       </c>
       <c r="Y343" s="3"/>
       <c r="Z343" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA343" s="6"/>
       <c r="AB343" s="6"/>
@@ -21298,7 +21306,7 @@
         <v>31</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -21325,14 +21333,14 @@
       <c r="U344" s="11"/>
       <c r="V344" s="11"/>
       <c r="W344" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X344" s="13">
         <v>0</v>
       </c>
       <c r="Y344" s="3"/>
       <c r="Z344" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA344" s="6"/>
       <c r="AB344" s="6"/>
@@ -21349,7 +21357,7 @@
         <v>31</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -21376,14 +21384,14 @@
       <c r="U345" s="11"/>
       <c r="V345" s="11"/>
       <c r="W345" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X345" s="13">
         <v>0</v>
       </c>
       <c r="Y345" s="3"/>
       <c r="Z345" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA345" s="6"/>
       <c r="AB345" s="6"/>
@@ -21400,7 +21408,7 @@
         <v>31</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -21427,14 +21435,14 @@
       <c r="U346" s="11"/>
       <c r="V346" s="11"/>
       <c r="W346" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X346" s="13">
         <v>0</v>
       </c>
       <c r="Y346" s="3"/>
       <c r="Z346" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA346" s="6"/>
       <c r="AB346" s="6"/>
@@ -21451,7 +21459,7 @@
         <v>31</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -21478,14 +21486,14 @@
       <c r="U347" s="11"/>
       <c r="V347" s="11"/>
       <c r="W347" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X347" s="13">
         <v>0</v>
       </c>
       <c r="Y347" s="3"/>
       <c r="Z347" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA347" s="6"/>
       <c r="AB347" s="6"/>
@@ -21502,7 +21510,7 @@
         <v>31</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -21529,14 +21537,14 @@
       <c r="U348" s="11"/>
       <c r="V348" s="11"/>
       <c r="W348" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X348" s="13">
         <v>0</v>
       </c>
       <c r="Y348" s="3"/>
       <c r="Z348" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA348" s="6"/>
       <c r="AB348" s="6"/>
@@ -21553,7 +21561,7 @@
         <v>31</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -21580,14 +21588,14 @@
       <c r="U349" s="11"/>
       <c r="V349" s="11"/>
       <c r="W349" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X349" s="13">
         <v>0</v>
       </c>
       <c r="Y349" s="3"/>
       <c r="Z349" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA349" s="6"/>
       <c r="AB349" s="6"/>
@@ -21604,7 +21612,7 @@
         <v>31</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -21631,17 +21639,17 @@
       <c r="U350" s="11"/>
       <c r="V350" s="11"/>
       <c r="W350" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X350" s="13">
         <v>0</v>
       </c>
       <c r="Y350" s="3"/>
       <c r="Z350" s="14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA350" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AB350" s="6"/>
       <c r="AC350" s="6"/>
@@ -21657,7 +21665,7 @@
         <v>31</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -21684,14 +21692,14 @@
       <c r="U351" s="11"/>
       <c r="V351" s="11"/>
       <c r="W351" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X351" s="13">
         <v>0</v>
       </c>
       <c r="Y351" s="3"/>
       <c r="Z351" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA351" s="6"/>
       <c r="AB351" s="6"/>
@@ -21708,7 +21716,7 @@
         <v>31</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -21742,7 +21750,7 @@
       </c>
       <c r="Y352" s="3"/>
       <c r="Z352" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AA352" s="6"/>
       <c r="AB352" s="6"/>
@@ -21759,7 +21767,7 @@
         <v>31</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -21793,7 +21801,7 @@
       </c>
       <c r="Y353" s="3"/>
       <c r="Z353" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AA353" s="6"/>
       <c r="AB353" s="6"/>
@@ -21810,7 +21818,7 @@
         <v>31</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -21844,7 +21852,7 @@
       </c>
       <c r="Y354" s="3"/>
       <c r="Z354" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AA354" s="6"/>
       <c r="AB354" s="6"/>
@@ -21861,7 +21869,7 @@
         <v>31</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -21895,7 +21903,7 @@
       </c>
       <c r="Y355" s="3"/>
       <c r="Z355" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AA355" s="6"/>
       <c r="AB355" s="6"/>
@@ -21909,10 +21917,10 @@
     </row>
     <row r="356" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -21938,13 +21946,13 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
       <c r="V356" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="W356" s="4"/>
       <c r="X356" s="4"/>
       <c r="Y356" s="5"/>
       <c r="Z356" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA356" s="6"/>
       <c r="AB356" s="6"/>
@@ -21958,10 +21966,10 @@
     </row>
     <row r="357" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -21987,13 +21995,13 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
       <c r="V357" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="W357" s="4"/>
       <c r="X357" s="4"/>
       <c r="Y357" s="5"/>
       <c r="Z357" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA357" s="6"/>
       <c r="AB357" s="6"/>
@@ -22007,10 +22015,10 @@
     </row>
     <row r="358" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -22036,13 +22044,13 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
       <c r="V358" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="W358" s="4"/>
       <c r="X358" s="4"/>
       <c r="Y358" s="5"/>
       <c r="Z358" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA358" s="6"/>
       <c r="AB358" s="6"/>
@@ -22056,10 +22064,10 @@
     </row>
     <row r="359" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -22085,13 +22093,13 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
       <c r="V359" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="W359" s="4"/>
       <c r="X359" s="4"/>
       <c r="Y359" s="5"/>
       <c r="Z359" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA359" s="6"/>
       <c r="AB359" s="6"/>
@@ -22105,10 +22113,10 @@
     </row>
     <row r="360" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -22134,13 +22142,13 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
       <c r="V360" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="W360" s="4"/>
       <c r="X360" s="4"/>
       <c r="Y360" s="5"/>
       <c r="Z360" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA360" s="6"/>
       <c r="AB360" s="6"/>
@@ -22154,10 +22162,10 @@
     </row>
     <row r="361" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -22183,13 +22191,13 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
       <c r="V361" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="W361" s="4"/>
       <c r="X361" s="4"/>
       <c r="Y361" s="5"/>
       <c r="Z361" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA361" s="6"/>
       <c r="AB361" s="6"/>
@@ -22203,10 +22211,10 @@
     </row>
     <row r="362" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -22232,13 +22240,13 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
       <c r="V362" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W362" s="4"/>
       <c r="X362" s="4"/>
       <c r="Y362" s="5"/>
       <c r="Z362" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA362" s="6"/>
       <c r="AB362" s="6"/>
@@ -22252,10 +22260,10 @@
     </row>
     <row r="363" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -22281,13 +22289,13 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
       <c r="V363" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="W363" s="4"/>
       <c r="X363" s="4"/>
       <c r="Y363" s="5"/>
       <c r="Z363" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA363" s="6"/>
       <c r="AB363" s="6"/>
@@ -22301,10 +22309,10 @@
     </row>
     <row r="364" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -22330,13 +22338,13 @@
       <c r="T364" s="4"/>
       <c r="U364" s="4"/>
       <c r="V364" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W364" s="4"/>
       <c r="X364" s="4"/>
       <c r="Y364" s="5"/>
       <c r="Z364" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA364" s="6"/>
       <c r="AB364" s="6"/>
@@ -22350,10 +22358,10 @@
     </row>
     <row r="365" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -22379,13 +22387,13 @@
       <c r="T365" s="4"/>
       <c r="U365" s="4"/>
       <c r="V365" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W365" s="4"/>
       <c r="X365" s="4"/>
       <c r="Y365" s="5"/>
       <c r="Z365" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA365" s="6"/>
       <c r="AB365" s="6"/>
@@ -22399,10 +22407,10 @@
     </row>
     <row r="366" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -22428,13 +22436,13 @@
       <c r="T366" s="4"/>
       <c r="U366" s="4"/>
       <c r="V366" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W366" s="4"/>
       <c r="X366" s="4"/>
       <c r="Y366" s="5"/>
       <c r="Z366" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA366" s="6"/>
       <c r="AB366" s="6"/>
@@ -22448,10 +22456,10 @@
     </row>
     <row r="367" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -22477,13 +22485,13 @@
       <c r="T367" s="4"/>
       <c r="U367" s="4"/>
       <c r="V367" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W367" s="4"/>
       <c r="X367" s="4"/>
       <c r="Y367" s="5"/>
       <c r="Z367" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA367" s="6"/>
       <c r="AB367" s="6"/>
@@ -22497,10 +22505,10 @@
     </row>
     <row r="368" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -22526,13 +22534,13 @@
       <c r="T368" s="4"/>
       <c r="U368" s="4"/>
       <c r="V368" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="W368" s="4"/>
       <c r="X368" s="4"/>
       <c r="Y368" s="5"/>
       <c r="Z368" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA368" s="6"/>
       <c r="AB368" s="6"/>
@@ -22546,10 +22554,10 @@
     </row>
     <row r="369" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -22575,13 +22583,13 @@
       <c r="T369" s="4"/>
       <c r="U369" s="4"/>
       <c r="V369" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="W369" s="4"/>
       <c r="X369" s="4"/>
       <c r="Y369" s="5"/>
       <c r="Z369" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA369" s="6"/>
       <c r="AB369" s="6"/>
@@ -22595,10 +22603,10 @@
     </row>
     <row r="370" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -22624,13 +22632,13 @@
       <c r="T370" s="4"/>
       <c r="U370" s="4"/>
       <c r="V370" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="W370" s="4"/>
       <c r="X370" s="4"/>
       <c r="Y370" s="5"/>
       <c r="Z370" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA370" s="6"/>
       <c r="AB370" s="6"/>
@@ -22644,10 +22652,10 @@
     </row>
     <row r="371" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -22673,13 +22681,13 @@
       <c r="T371" s="4"/>
       <c r="U371" s="4"/>
       <c r="V371" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="W371" s="4"/>
       <c r="X371" s="4"/>
       <c r="Y371" s="5"/>
       <c r="Z371" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA371" s="6"/>
       <c r="AB371" s="6"/>
@@ -22693,10 +22701,10 @@
     </row>
     <row r="372" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -22722,13 +22730,13 @@
       <c r="T372" s="4"/>
       <c r="U372" s="4"/>
       <c r="V372" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="W372" s="4"/>
       <c r="X372" s="4"/>
       <c r="Y372" s="5"/>
       <c r="Z372" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA372" s="6"/>
       <c r="AB372" s="6"/>
@@ -22994,12 +23002,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -23029,17 +23037,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B11657-B271-429E-A3FA-C2277F81B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6189E229-E014-4EB1-9F0A-DA0B69CFB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="4245" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>1R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -591,7 +591,7 @@
     <t>1R_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -1218,7 +1218,7 @@
     <t>P41_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -1359,7 +1359,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1380,13 +1380,13 @@
     <t>解放99_PY</t>
   </si>
   <si>
-    <t>解放てこ</t>
+    <t>解放表示灯</t>
   </si>
   <si>
     <t>142T_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -1854,7 +1854,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>

--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49FC0ED-B7C7-468F-A0A1-1C4B5B1B2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0153E818-CF72-4D86-98EE-3C47E8B49DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="4080" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="3780" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="501">
   <si>
     <t>Type</t>
   </si>
@@ -1816,9 +1816,6 @@
   </si>
   <si>
     <t>方向てこ表示灯</t>
-  </si>
-  <si>
-    <t>DF1T</t>
   </si>
   <si>
     <t>DF1T_2</t>
@@ -21096,9 +21093,7 @@
       <c r="D329" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E329" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
@@ -21146,15 +21141,13 @@
         <v>31</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E330" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="E330" s="4"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
@@ -21202,15 +21195,13 @@
         <v>31</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E331" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
@@ -21241,10 +21232,10 @@
       </c>
       <c r="Z331" s="3"/>
       <c r="AA331" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB331" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="AB331" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="AC331" s="6"/>
       <c r="AD331" s="6"/>
@@ -21260,15 +21251,13 @@
         <v>31</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E332" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
@@ -21318,15 +21307,13 @@
         <v>31</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E333" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="E333" s="4"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
@@ -21376,15 +21363,13 @@
         <v>31</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E334" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
@@ -21415,10 +21400,10 @@
       </c>
       <c r="Z334" s="3"/>
       <c r="AA334" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB334" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="AB334" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="AC334" s="6"/>
       <c r="AD334" s="6"/>
@@ -21434,7 +21419,7 @@
         <v>31</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4" t="s">
@@ -21488,7 +21473,7 @@
         <v>31</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4" t="s">
@@ -21542,7 +21527,7 @@
         <v>31</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4" t="s">
@@ -21596,7 +21581,7 @@
         <v>31</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4" t="s">
@@ -21650,7 +21635,7 @@
         <v>31</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4" t="s">
@@ -21706,7 +21691,7 @@
         <v>31</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4" t="s">
@@ -21760,7 +21745,7 @@
         <v>31</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4" t="s">
@@ -21814,7 +21799,7 @@
         <v>31</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4" t="s">
@@ -21868,7 +21853,7 @@
         <v>31</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4" t="s">
@@ -21922,7 +21907,7 @@
         <v>31</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4" t="s">
@@ -21976,7 +21961,7 @@
         <v>31</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4" t="s">
@@ -22030,7 +22015,7 @@
         <v>31</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4" t="s">
@@ -22084,7 +22069,7 @@
         <v>31</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4" t="s">
@@ -22138,7 +22123,7 @@
         <v>31</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4" t="s">
@@ -22192,7 +22177,7 @@
         <v>31</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4" t="s">
@@ -22246,7 +22231,7 @@
         <v>31</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4" t="s">
@@ -22302,7 +22287,7 @@
         <v>31</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4" t="s">
@@ -22356,11 +22341,11 @@
         <v>31</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
@@ -22393,7 +22378,7 @@
       </c>
       <c r="Z352" s="3"/>
       <c r="AA352" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB352" s="6"/>
       <c r="AC352" s="6"/>
@@ -22410,11 +22395,11 @@
         <v>31</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
@@ -22447,7 +22432,7 @@
       </c>
       <c r="Z353" s="3"/>
       <c r="AA353" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB353" s="6"/>
       <c r="AC353" s="6"/>
@@ -22464,11 +22449,11 @@
         <v>31</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -22501,7 +22486,7 @@
       </c>
       <c r="Z354" s="3"/>
       <c r="AA354" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB354" s="6"/>
       <c r="AC354" s="6"/>
@@ -22518,11 +22503,11 @@
         <v>31</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
@@ -22555,7 +22540,7 @@
       </c>
       <c r="Z355" s="3"/>
       <c r="AA355" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB355" s="6"/>
       <c r="AC355" s="6"/>
@@ -22569,14 +22554,14 @@
     </row>
     <row r="356" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B356" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
@@ -22605,7 +22590,7 @@
       <c r="Y356" s="4"/>
       <c r="Z356" s="5"/>
       <c r="AA356" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB356" s="6"/>
       <c r="AC356" s="6"/>
@@ -22619,14 +22604,14 @@
     </row>
     <row r="357" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
@@ -22655,7 +22640,7 @@
       <c r="Y357" s="4"/>
       <c r="Z357" s="5"/>
       <c r="AA357" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB357" s="6"/>
       <c r="AC357" s="6"/>
@@ -22669,14 +22654,14 @@
     </row>
     <row r="358" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
@@ -22705,7 +22690,7 @@
       <c r="Y358" s="4"/>
       <c r="Z358" s="5"/>
       <c r="AA358" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB358" s="6"/>
       <c r="AC358" s="6"/>
@@ -22719,14 +22704,14 @@
     </row>
     <row r="359" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -22755,7 +22740,7 @@
       <c r="Y359" s="4"/>
       <c r="Z359" s="5"/>
       <c r="AA359" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB359" s="6"/>
       <c r="AC359" s="6"/>
@@ -22769,14 +22754,14 @@
     </row>
     <row r="360" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
@@ -22805,7 +22790,7 @@
       <c r="Y360" s="4"/>
       <c r="Z360" s="5"/>
       <c r="AA360" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB360" s="6"/>
       <c r="AC360" s="6"/>
@@ -22819,14 +22804,14 @@
     </row>
     <row r="361" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
@@ -22855,7 +22840,7 @@
       <c r="Y361" s="4"/>
       <c r="Z361" s="5"/>
       <c r="AA361" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB361" s="6"/>
       <c r="AC361" s="6"/>
@@ -22869,14 +22854,14 @@
     </row>
     <row r="362" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
@@ -22905,7 +22890,7 @@
       <c r="Y362" s="4"/>
       <c r="Z362" s="5"/>
       <c r="AA362" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB362" s="6"/>
       <c r="AC362" s="6"/>
@@ -22919,14 +22904,14 @@
     </row>
     <row r="363" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -22955,7 +22940,7 @@
       <c r="Y363" s="4"/>
       <c r="Z363" s="5"/>
       <c r="AA363" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB363" s="6"/>
       <c r="AC363" s="6"/>
@@ -22969,14 +22954,14 @@
     </row>
     <row r="364" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -23005,7 +22990,7 @@
       <c r="Y364" s="4"/>
       <c r="Z364" s="5"/>
       <c r="AA364" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB364" s="6"/>
       <c r="AC364" s="6"/>
@@ -23019,14 +23004,14 @@
     </row>
     <row r="365" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
@@ -23055,7 +23040,7 @@
       <c r="Y365" s="4"/>
       <c r="Z365" s="5"/>
       <c r="AA365" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB365" s="6"/>
       <c r="AC365" s="6"/>
@@ -23069,14 +23054,14 @@
     </row>
     <row r="366" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
@@ -23105,7 +23090,7 @@
       <c r="Y366" s="4"/>
       <c r="Z366" s="5"/>
       <c r="AA366" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB366" s="6"/>
       <c r="AC366" s="6"/>
@@ -23119,14 +23104,14 @@
     </row>
     <row r="367" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
@@ -23155,7 +23140,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="5"/>
       <c r="AA367" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB367" s="6"/>
       <c r="AC367" s="6"/>
@@ -23169,14 +23154,14 @@
     </row>
     <row r="368" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
@@ -23205,7 +23190,7 @@
       <c r="Y368" s="4"/>
       <c r="Z368" s="5"/>
       <c r="AA368" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB368" s="6"/>
       <c r="AC368" s="6"/>
@@ -23219,14 +23204,14 @@
     </row>
     <row r="369" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
@@ -23255,7 +23240,7 @@
       <c r="Y369" s="4"/>
       <c r="Z369" s="5"/>
       <c r="AA369" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB369" s="6"/>
       <c r="AC369" s="6"/>
@@ -23269,14 +23254,14 @@
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -23305,7 +23290,7 @@
       <c r="Y370" s="4"/>
       <c r="Z370" s="5"/>
       <c r="AA370" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB370" s="6"/>
       <c r="AC370" s="6"/>
@@ -23319,14 +23304,14 @@
     </row>
     <row r="371" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -23355,7 +23340,7 @@
       <c r="Y371" s="4"/>
       <c r="Z371" s="5"/>
       <c r="AA371" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB371" s="6"/>
       <c r="AC371" s="6"/>
@@ -23369,14 +23354,14 @@
     </row>
     <row r="372" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -23405,7 +23390,7 @@
       <c r="Y372" s="4"/>
       <c r="Z372" s="5"/>
       <c r="AA372" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB372" s="6"/>
       <c r="AC372" s="6"/>
@@ -23575,24 +23560,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>498</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>501</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -23603,7 +23588,7 @@
         <v>233</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -23650,7 +23635,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7298D-0B42-448E-9680-B889E218EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CF4CD8-4A6F-470C-9650-6A101EAD7762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="5205" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="4815" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="665">
   <si>
     <t>Type</t>
   </si>
@@ -2215,6 +2215,9 @@
   </si>
   <si>
     <t>DF1T</t>
+  </si>
+  <si>
+    <t>TH65_14F</t>
   </si>
   <si>
     <t>DF1T_2</t>
@@ -22479,7 +22482,7 @@
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="10" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K329" s="4" t="s">
         <v>326</v>
@@ -22525,7 +22528,7 @@
         <v>31</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4" t="s">
@@ -22539,7 +22542,7 @@
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="10" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K330" s="4" t="s">
         <v>326</v>
@@ -22585,7 +22588,7 @@
         <v>31</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4" t="s">
@@ -22599,10 +22602,10 @@
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="10" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K331" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L331" s="4">
         <v>2420</v>
@@ -22628,10 +22631,10 @@
       </c>
       <c r="Z331" s="3"/>
       <c r="AA331" s="15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AB331" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC331" s="6"/>
       <c r="AD331" s="6"/>
@@ -22647,7 +22650,7 @@
         <v>31</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4" t="s">
@@ -22661,10 +22664,10 @@
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="10" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K332" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L332" s="4">
         <v>2420</v>
@@ -22709,7 +22712,7 @@
         <v>31</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4" t="s">
@@ -22723,7 +22726,7 @@
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="10" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K333" s="4" t="s">
         <v>329</v>
@@ -22771,7 +22774,7 @@
         <v>31</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4" t="s">
@@ -22785,7 +22788,7 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="10" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K334" s="4" t="s">
         <v>329</v>
@@ -22814,10 +22817,10 @@
       </c>
       <c r="Z334" s="3"/>
       <c r="AA334" s="15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AB334" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC334" s="6"/>
       <c r="AD334" s="6"/>
@@ -22833,14 +22836,14 @@
         <v>31</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -22889,17 +22892,17 @@
         <v>31</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G336" s="4" t="s">
         <v>326</v>
@@ -22949,17 +22952,17 @@
         <v>31</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G337" s="4" t="s">
         <v>326</v>
@@ -23009,17 +23012,17 @@
         <v>31</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G338" s="4" t="s">
         <v>329</v>
@@ -23069,17 +23072,17 @@
         <v>31</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>329</v>
@@ -23131,14 +23134,14 @@
         <v>31</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -23187,14 +23190,14 @@
         <v>31</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E341" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -23243,14 +23246,14 @@
         <v>31</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -23299,14 +23302,14 @@
         <v>31</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -23355,14 +23358,14 @@
         <v>31</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -23411,14 +23414,14 @@
         <v>31</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E345" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -23467,14 +23470,14 @@
         <v>31</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -23523,14 +23526,14 @@
         <v>31</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -23579,17 +23582,17 @@
         <v>31</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G348" s="4" t="s">
         <v>326</v>
@@ -23639,17 +23642,17 @@
         <v>31</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G349" s="4" t="s">
         <v>326</v>
@@ -23699,17 +23702,17 @@
         <v>31</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G350" s="4" t="s">
         <v>329</v>
@@ -23761,17 +23764,17 @@
         <v>31</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G351" s="4" t="s">
         <v>329</v>
@@ -23821,14 +23824,14 @@
         <v>31</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E352" s="14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -23860,7 +23863,7 @@
       </c>
       <c r="Z352" s="3"/>
       <c r="AA352" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB352" s="6"/>
       <c r="AC352" s="6"/>
@@ -23877,14 +23880,14 @@
         <v>31</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E353" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
@@ -23916,7 +23919,7 @@
       </c>
       <c r="Z353" s="3"/>
       <c r="AA353" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB353" s="6"/>
       <c r="AC353" s="6"/>
@@ -23933,14 +23936,14 @@
         <v>31</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E354" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -23972,7 +23975,7 @@
       </c>
       <c r="Z354" s="3"/>
       <c r="AA354" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB354" s="6"/>
       <c r="AC354" s="6"/>
@@ -23989,14 +23992,14 @@
         <v>31</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E355" s="14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -24028,7 +24031,7 @@
       </c>
       <c r="Z355" s="3"/>
       <c r="AA355" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB355" s="6"/>
       <c r="AC355" s="6"/>
@@ -24042,17 +24045,17 @@
     </row>
     <row r="356" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -24080,7 +24083,7 @@
       <c r="Y356" s="4"/>
       <c r="Z356" s="5"/>
       <c r="AA356" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB356" s="6"/>
       <c r="AC356" s="6"/>
@@ -24094,17 +24097,17 @@
     </row>
     <row r="357" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -24132,7 +24135,7 @@
       <c r="Y357" s="4"/>
       <c r="Z357" s="5"/>
       <c r="AA357" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB357" s="6"/>
       <c r="AC357" s="6"/>
@@ -24146,17 +24149,17 @@
     </row>
     <row r="358" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E358" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -24184,7 +24187,7 @@
       <c r="Y358" s="4"/>
       <c r="Z358" s="5"/>
       <c r="AA358" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB358" s="6"/>
       <c r="AC358" s="6"/>
@@ -24198,17 +24201,17 @@
     </row>
     <row r="359" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E359" s="14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
@@ -24236,7 +24239,7 @@
       <c r="Y359" s="4"/>
       <c r="Z359" s="5"/>
       <c r="AA359" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB359" s="6"/>
       <c r="AC359" s="6"/>
@@ -24250,17 +24253,17 @@
     </row>
     <row r="360" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -24288,7 +24291,7 @@
       <c r="Y360" s="4"/>
       <c r="Z360" s="5"/>
       <c r="AA360" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB360" s="6"/>
       <c r="AC360" s="6"/>
@@ -24302,17 +24305,17 @@
     </row>
     <row r="361" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
@@ -24340,7 +24343,7 @@
       <c r="Y361" s="4"/>
       <c r="Z361" s="5"/>
       <c r="AA361" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB361" s="6"/>
       <c r="AC361" s="6"/>
@@ -24354,17 +24357,17 @@
     </row>
     <row r="362" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E362" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
@@ -24392,7 +24395,7 @@
       <c r="Y362" s="4"/>
       <c r="Z362" s="5"/>
       <c r="AA362" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB362" s="6"/>
       <c r="AC362" s="6"/>
@@ -24406,17 +24409,17 @@
     </row>
     <row r="363" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E363" s="14" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -24444,7 +24447,7 @@
       <c r="Y363" s="4"/>
       <c r="Z363" s="5"/>
       <c r="AA363" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB363" s="6"/>
       <c r="AC363" s="6"/>
@@ -24458,17 +24461,17 @@
     </row>
     <row r="364" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E364" s="14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -24496,7 +24499,7 @@
       <c r="Y364" s="4"/>
       <c r="Z364" s="5"/>
       <c r="AA364" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB364" s="6"/>
       <c r="AC364" s="6"/>
@@ -24510,17 +24513,17 @@
     </row>
     <row r="365" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E365" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -24548,7 +24551,7 @@
       <c r="Y365" s="4"/>
       <c r="Z365" s="5"/>
       <c r="AA365" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB365" s="6"/>
       <c r="AC365" s="6"/>
@@ -24562,17 +24565,17 @@
     </row>
     <row r="366" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E366" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
@@ -24600,7 +24603,7 @@
       <c r="Y366" s="4"/>
       <c r="Z366" s="5"/>
       <c r="AA366" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB366" s="6"/>
       <c r="AC366" s="6"/>
@@ -24614,17 +24617,17 @@
     </row>
     <row r="367" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E367" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -24652,7 +24655,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="5"/>
       <c r="AA367" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB367" s="6"/>
       <c r="AC367" s="6"/>
@@ -24666,17 +24669,17 @@
     </row>
     <row r="368" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -24704,7 +24707,7 @@
       <c r="Y368" s="4"/>
       <c r="Z368" s="5"/>
       <c r="AA368" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB368" s="6"/>
       <c r="AC368" s="6"/>
@@ -24718,17 +24721,17 @@
     </row>
     <row r="369" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E369" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -24756,7 +24759,7 @@
       <c r="Y369" s="4"/>
       <c r="Z369" s="5"/>
       <c r="AA369" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB369" s="6"/>
       <c r="AC369" s="6"/>
@@ -24770,17 +24773,17 @@
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E370" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -24808,7 +24811,7 @@
       <c r="Y370" s="4"/>
       <c r="Z370" s="5"/>
       <c r="AA370" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB370" s="6"/>
       <c r="AC370" s="6"/>
@@ -24822,17 +24825,17 @@
     </row>
     <row r="371" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E371" s="14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -24860,7 +24863,7 @@
       <c r="Y371" s="4"/>
       <c r="Z371" s="5"/>
       <c r="AA371" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB371" s="6"/>
       <c r="AC371" s="6"/>
@@ -24874,17 +24877,17 @@
     </row>
     <row r="372" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E372" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -24912,7 +24915,7 @@
       <c r="Y372" s="4"/>
       <c r="Z372" s="5"/>
       <c r="AA372" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB372" s="6"/>
       <c r="AC372" s="6"/>
@@ -25082,18 +25085,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>326</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>329</v>
@@ -25157,7 +25160,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CF4CD8-4A6F-470C-9650-6A101EAD7762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD472F7-F8FA-4AA2-A4D8-C3F3D0FD68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="4815" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="4455" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="667">
   <si>
     <t>Type</t>
   </si>
@@ -2328,16 +2328,22 @@
     <t>TH64_22T_W22R_2</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH65_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
     <t>TH65_PWR-FAILURE</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
@@ -2799,7 +2805,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ375"/>
+  <dimension ref="A1:AJ376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -23840,7 +23846,7 @@
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
       <c r="L352" s="4">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M352" s="4">
         <v>45</v>
@@ -23896,7 +23902,7 @@
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
       <c r="L353" s="4">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M353" s="4">
         <v>45</v>
@@ -23952,10 +23958,10 @@
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
       <c r="L354" s="4">
-        <v>1256</v>
+        <v>280</v>
       </c>
       <c r="M354" s="4">
-        <v>927</v>
+        <v>45</v>
       </c>
       <c r="N354" s="4"/>
       <c r="O354" s="4"/>
@@ -24008,7 +24014,7 @@
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
       <c r="L355" s="4">
-        <v>1294</v>
+        <v>1256</v>
       </c>
       <c r="M355" s="4">
         <v>927</v>
@@ -24045,17 +24051,17 @@
     </row>
     <row r="356" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B356" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E356" s="10" t="s">
-        <v>629</v>
+        <v>617</v>
+      </c>
+      <c r="E356" s="14" t="s">
+        <v>627</v>
       </c>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -24064,10 +24070,10 @@
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
       <c r="L356" s="4">
-        <v>24</v>
+        <v>1294</v>
       </c>
       <c r="M356" s="4">
-        <v>227</v>
+        <v>927</v>
       </c>
       <c r="N356" s="4"/>
       <c r="O356" s="4"/>
@@ -24079,11 +24085,15 @@
       <c r="U356" s="4"/>
       <c r="V356" s="4"/>
       <c r="W356" s="4"/>
-      <c r="X356" s="4"/>
-      <c r="Y356" s="4"/>
-      <c r="Z356" s="5"/>
-      <c r="AA356" s="6" t="s">
-        <v>630</v>
+      <c r="X356" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y356" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z356" s="3"/>
+      <c r="AA356" s="15" t="s">
+        <v>619</v>
       </c>
       <c r="AB356" s="6"/>
       <c r="AC356" s="6"/>
@@ -24097,17 +24107,17 @@
     </row>
     <row r="357" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -24119,7 +24129,7 @@
         <v>24</v>
       </c>
       <c r="M357" s="4">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="N357" s="4"/>
       <c r="O357" s="4"/>
@@ -24135,7 +24145,7 @@
       <c r="Y357" s="4"/>
       <c r="Z357" s="5"/>
       <c r="AA357" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB357" s="6"/>
       <c r="AC357" s="6"/>
@@ -24149,16 +24159,16 @@
     </row>
     <row r="358" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>633</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E358" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E358" s="10" t="s">
         <v>634</v>
       </c>
       <c r="F358" s="4"/>
@@ -24168,7 +24178,7 @@
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="M358" s="4">
         <v>273</v>
@@ -24187,7 +24197,7 @@
       <c r="Y358" s="4"/>
       <c r="Z358" s="5"/>
       <c r="AA358" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB358" s="6"/>
       <c r="AC358" s="6"/>
@@ -24201,14 +24211,14 @@
     </row>
     <row r="359" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>635</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E359" s="14" t="s">
         <v>636</v>
@@ -24220,7 +24230,7 @@
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
       <c r="L359" s="4">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="M359" s="4">
         <v>273</v>
@@ -24239,7 +24249,7 @@
       <c r="Y359" s="4"/>
       <c r="Z359" s="5"/>
       <c r="AA359" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB359" s="6"/>
       <c r="AC359" s="6"/>
@@ -24253,16 +24263,16 @@
     </row>
     <row r="360" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>637</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E360" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E360" s="14" t="s">
         <v>638</v>
       </c>
       <c r="F360" s="4"/>
@@ -24272,10 +24282,10 @@
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
       <c r="L360" s="4">
-        <v>511</v>
+        <v>174</v>
       </c>
       <c r="M360" s="4">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="N360" s="4"/>
       <c r="O360" s="4"/>
@@ -24291,7 +24301,7 @@
       <c r="Y360" s="4"/>
       <c r="Z360" s="5"/>
       <c r="AA360" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB360" s="6"/>
       <c r="AC360" s="6"/>
@@ -24305,16 +24315,16 @@
     </row>
     <row r="361" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>639</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E361" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E361" s="10" t="s">
         <v>640</v>
       </c>
       <c r="F361" s="4"/>
@@ -24324,10 +24334,10 @@
       <c r="J361" s="4"/>
       <c r="K361" s="4"/>
       <c r="L361" s="4">
-        <v>816</v>
+        <v>511</v>
       </c>
       <c r="M361" s="4">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="N361" s="4"/>
       <c r="O361" s="4"/>
@@ -24343,7 +24353,7 @@
       <c r="Y361" s="4"/>
       <c r="Z361" s="5"/>
       <c r="AA361" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB361" s="6"/>
       <c r="AC361" s="6"/>
@@ -24357,14 +24367,14 @@
     </row>
     <row r="362" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>641</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E362" s="14" t="s">
         <v>642</v>
@@ -24379,7 +24389,7 @@
         <v>816</v>
       </c>
       <c r="M362" s="4">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="N362" s="4"/>
       <c r="O362" s="4"/>
@@ -24395,7 +24405,7 @@
       <c r="Y362" s="4"/>
       <c r="Z362" s="5"/>
       <c r="AA362" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB362" s="6"/>
       <c r="AC362" s="6"/>
@@ -24409,14 +24419,14 @@
     </row>
     <row r="363" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>643</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E363" s="14" t="s">
         <v>644</v>
@@ -24431,7 +24441,7 @@
         <v>816</v>
       </c>
       <c r="M363" s="4">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="N363" s="4"/>
       <c r="O363" s="4"/>
@@ -24447,7 +24457,7 @@
       <c r="Y363" s="4"/>
       <c r="Z363" s="5"/>
       <c r="AA363" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB363" s="6"/>
       <c r="AC363" s="6"/>
@@ -24461,14 +24471,14 @@
     </row>
     <row r="364" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>645</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E364" s="14" t="s">
         <v>646</v>
@@ -24483,7 +24493,7 @@
         <v>816</v>
       </c>
       <c r="M364" s="4">
-        <v>634</v>
+        <v>520</v>
       </c>
       <c r="N364" s="4"/>
       <c r="O364" s="4"/>
@@ -24499,7 +24509,7 @@
       <c r="Y364" s="4"/>
       <c r="Z364" s="5"/>
       <c r="AA364" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB364" s="6"/>
       <c r="AC364" s="6"/>
@@ -24513,14 +24523,14 @@
     </row>
     <row r="365" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>647</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E365" s="14" t="s">
         <v>648</v>
@@ -24532,10 +24542,10 @@
       <c r="J365" s="4"/>
       <c r="K365" s="4"/>
       <c r="L365" s="4">
-        <v>1757</v>
+        <v>816</v>
       </c>
       <c r="M365" s="4">
-        <v>507</v>
+        <v>634</v>
       </c>
       <c r="N365" s="4"/>
       <c r="O365" s="4"/>
@@ -24551,7 +24561,7 @@
       <c r="Y365" s="4"/>
       <c r="Z365" s="5"/>
       <c r="AA365" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB365" s="6"/>
       <c r="AC365" s="6"/>
@@ -24565,14 +24575,14 @@
     </row>
     <row r="366" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>649</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E366" s="14" t="s">
         <v>650</v>
@@ -24584,10 +24594,10 @@
       <c r="J366" s="4"/>
       <c r="K366" s="4"/>
       <c r="L366" s="4">
-        <v>2161</v>
+        <v>1757</v>
       </c>
       <c r="M366" s="4">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="N366" s="4"/>
       <c r="O366" s="4"/>
@@ -24603,7 +24613,7 @@
       <c r="Y366" s="4"/>
       <c r="Z366" s="5"/>
       <c r="AA366" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB366" s="6"/>
       <c r="AC366" s="6"/>
@@ -24617,14 +24627,14 @@
     </row>
     <row r="367" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>651</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E367" s="14" t="s">
         <v>652</v>
@@ -24639,7 +24649,7 @@
         <v>2161</v>
       </c>
       <c r="M367" s="4">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="N367" s="4"/>
       <c r="O367" s="4"/>
@@ -24655,7 +24665,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="5"/>
       <c r="AA367" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB367" s="6"/>
       <c r="AC367" s="6"/>
@@ -24669,16 +24679,16 @@
     </row>
     <row r="368" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>653</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E368" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E368" s="14" t="s">
         <v>654</v>
       </c>
       <c r="F368" s="4"/>
@@ -24688,10 +24698,10 @@
       <c r="J368" s="4"/>
       <c r="K368" s="4"/>
       <c r="L368" s="4">
-        <v>1313</v>
+        <v>2161</v>
       </c>
       <c r="M368" s="4">
-        <v>567</v>
+        <v>460</v>
       </c>
       <c r="N368" s="4"/>
       <c r="O368" s="4"/>
@@ -24707,7 +24717,7 @@
       <c r="Y368" s="4"/>
       <c r="Z368" s="5"/>
       <c r="AA368" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB368" s="6"/>
       <c r="AC368" s="6"/>
@@ -24721,16 +24731,16 @@
     </row>
     <row r="369" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>655</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E369" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E369" s="10" t="s">
         <v>656</v>
       </c>
       <c r="F369" s="4"/>
@@ -24740,10 +24750,10 @@
       <c r="J369" s="4"/>
       <c r="K369" s="4"/>
       <c r="L369" s="4">
-        <v>2105</v>
+        <v>1313</v>
       </c>
       <c r="M369" s="4">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="N369" s="4"/>
       <c r="O369" s="4"/>
@@ -24759,7 +24769,7 @@
       <c r="Y369" s="4"/>
       <c r="Z369" s="5"/>
       <c r="AA369" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB369" s="6"/>
       <c r="AC369" s="6"/>
@@ -24773,14 +24783,14 @@
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>657</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E370" s="14" t="s">
         <v>658</v>
@@ -24792,7 +24802,7 @@
       <c r="J370" s="4"/>
       <c r="K370" s="4"/>
       <c r="L370" s="4">
-        <v>2255</v>
+        <v>2105</v>
       </c>
       <c r="M370" s="4">
         <v>573</v>
@@ -24811,7 +24821,7 @@
       <c r="Y370" s="4"/>
       <c r="Z370" s="5"/>
       <c r="AA370" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB370" s="6"/>
       <c r="AC370" s="6"/>
@@ -24825,14 +24835,14 @@
     </row>
     <row r="371" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E371" s="14" t="s">
         <v>660</v>
@@ -24844,10 +24854,10 @@
       <c r="J371" s="4"/>
       <c r="K371" s="4"/>
       <c r="L371" s="4">
-        <v>2405</v>
+        <v>2255</v>
       </c>
       <c r="M371" s="4">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="N371" s="4"/>
       <c r="O371" s="4"/>
@@ -24863,7 +24873,7 @@
       <c r="Y371" s="4"/>
       <c r="Z371" s="5"/>
       <c r="AA371" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB371" s="6"/>
       <c r="AC371" s="6"/>
@@ -24877,14 +24887,14 @@
     </row>
     <row r="372" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E372" s="14" t="s">
         <v>662</v>
@@ -24899,7 +24909,7 @@
         <v>2405</v>
       </c>
       <c r="M372" s="4">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="N372" s="4"/>
       <c r="O372" s="4"/>
@@ -24915,7 +24925,7 @@
       <c r="Y372" s="4"/>
       <c r="Z372" s="5"/>
       <c r="AA372" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AB372" s="6"/>
       <c r="AC372" s="6"/>
@@ -24928,19 +24938,31 @@
       <c r="AJ372" s="6"/>
     </row>
     <row r="373" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A373" s="4"/>
-      <c r="B373" s="4"/>
+      <c r="A373" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
-      <c r="E373" s="4"/>
+      <c r="D373" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E373" s="14" t="s">
+        <v>664</v>
+      </c>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
-      <c r="L373" s="4"/>
-      <c r="M373" s="4"/>
+      <c r="L373" s="4">
+        <v>2405</v>
+      </c>
+      <c r="M373" s="4">
+        <v>573</v>
+      </c>
       <c r="N373" s="4"/>
       <c r="O373" s="4"/>
       <c r="P373" s="4"/>
@@ -24954,7 +24976,9 @@
       <c r="X373" s="4"/>
       <c r="Y373" s="4"/>
       <c r="Z373" s="5"/>
-      <c r="AA373" s="12"/>
+      <c r="AA373" s="6" t="s">
+        <v>632</v>
+      </c>
       <c r="AB373" s="6"/>
       <c r="AC373" s="6"/>
       <c r="AD373" s="6"/>
@@ -25041,6 +25065,44 @@
       <c r="AI375" s="6"/>
       <c r="AJ375" s="6"/>
     </row>
+    <row r="376" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+      <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
+      <c r="H376" s="4"/>
+      <c r="I376" s="4"/>
+      <c r="J376" s="4"/>
+      <c r="K376" s="4"/>
+      <c r="L376" s="4"/>
+      <c r="M376" s="4"/>
+      <c r="N376" s="4"/>
+      <c r="O376" s="4"/>
+      <c r="P376" s="4"/>
+      <c r="Q376" s="4"/>
+      <c r="R376" s="4"/>
+      <c r="S376" s="4"/>
+      <c r="T376" s="4"/>
+      <c r="U376" s="4"/>
+      <c r="V376" s="4"/>
+      <c r="W376" s="4"/>
+      <c r="X376" s="4"/>
+      <c r="Y376" s="4"/>
+      <c r="Z376" s="5"/>
+      <c r="AA376" s="12"/>
+      <c r="AB376" s="6"/>
+      <c r="AC376" s="6"/>
+      <c r="AD376" s="6"/>
+      <c r="AE376" s="6"/>
+      <c r="AF376" s="6"/>
+      <c r="AG376" s="6"/>
+      <c r="AH376" s="6"/>
+      <c r="AI376" s="6"/>
+      <c r="AJ376" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25052,19 +25114,19 @@
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K375</xm:sqref>
+          <xm:sqref>K2:K376</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A375</xm:sqref>
+          <xm:sqref>A2:A376</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G375 I2:I375</xm:sqref>
+          <xm:sqref>G2:G376 I2:I376</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25085,7 +25147,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>326</v>
@@ -25096,7 +25158,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>329</v>
@@ -25160,7 +25222,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
+++ b/exe/TSV/Excel/TH65_Daidoji_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD472F7-F8FA-4AA2-A4D8-C3F3D0FD68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AD04C-A186-4CDE-9FEB-8C98D5027ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="4455" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH65_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -24230,7 +24230,7 @@
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
       <c r="L359" s="4">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="M359" s="4">
         <v>273</v>
@@ -24282,7 +24282,7 @@
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
       <c r="L360" s="4">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="M360" s="4">
         <v>273</v>
